--- a/testresults1.xlsx
+++ b/testresults1.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vaibhav Vachhani\Downloads\SEM-5\CAB301\Assignment 2\Assignment2\CAB301-Assignment2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaushallimbasiya/Documents/GitHub/CAB301-Assignment2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E646F1CD-FD05-49F4-946A-B99AB2C8288D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A07927-D956-7443-A9DC-2BD5440AD8BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{081349F4-0C2E-45C9-AFE0-59D10EF7212F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{081349F4-0C2E-45C9-AFE0-59D10EF7212F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="testRun1" sheetId="1" r:id="rId1"/>
+    <sheet name="testRun2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t xml:space="preserve">ArraySize </t>
   </si>
@@ -41,14 +42,36 @@
   <si>
     <t>Counter 1 (minDistance)</t>
   </si>
+  <si>
+    <t>Array Size</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Apple Braille"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -72,14 +95,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{A020F26F-6B2D-3643-BB8E-ED47EEE7494A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -179,7 +207,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>testRun1!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -257,7 +285,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$31</c:f>
+              <c:f>testRun1!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -356,7 +384,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$31</c:f>
+              <c:f>testRun1!$B$2:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -465,7 +493,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>testRun1!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -543,7 +571,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$31</c:f>
+              <c:f>testRun1!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -642,7 +670,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$31</c:f>
+              <c:f>testRun1!$C$2:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -1072,7 +1100,1043 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Array Size vs</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Counters for minDistance and minDistance2</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>testRun2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Counter 1 (minDistance)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:name>Counter 1 (minDiatance)</c:name>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>testRun2!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>5698</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2486</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4332</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>516</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8939</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6932</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9736</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7913</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2175</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1273</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1372</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>682</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9080</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5191</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4752</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3225</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2307</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4512</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1096</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7685</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3940</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1374</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3469</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4104</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2892</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2477</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8933</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>testRun2!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>32467204</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64016001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10896601</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6180196</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18766224</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>266256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>79905721</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48052624</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25200400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>94789696</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>62615569</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4730625</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1620529</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1882384</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>465124</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>82446400</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26946481</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22581504</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10400625</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5322249</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20358144</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1201216</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>59059225</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15523600</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1887876</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12033961</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>16842816</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8363664</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6135529</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>79798489</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C066-4D47-874B-9B2E836AD221}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>testRun2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Counter 2 (minDistance2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:name>Counter 2 (minDistance2)</c:name>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>testRun2!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>5698</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2486</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4332</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>516</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8939</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6932</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9736</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7913</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2175</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1273</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1372</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>682</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9080</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5191</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4752</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3225</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2307</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4512</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1096</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7685</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3940</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1374</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3469</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4104</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2892</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2477</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8933</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>testRun2!$C$2:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>16230753</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32004000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5446650</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3088855</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9380946</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>132870</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39948391</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24022846</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12597690</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47389980</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31303828</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2364225</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>809628</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>940506</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>232221</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41218660</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13470645</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11288376</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5198700</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2659971</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10176816</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>600060</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29525770</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7759830</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>943251</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6015246</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8419356</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4180386</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3066526</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>39894778</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C066-4D47-874B-9B2E836AD221}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="678499759"/>
+        <c:axId val="678500143"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="678499759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Array Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="678500143"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="678500143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Number of Times Basic Operation</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t> is Performed</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.4083733435759554E-2"/>
+              <c:y val="0.1954409203522457"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="678499759"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16749836758210104"/>
+          <c:y val="8.0754368320782338E-2"/>
+          <c:w val="0.71980917995006721"/>
+          <c:h val="4.2572178477690285E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1628,6 +2692,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1653,6 +3233,49 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{280A0378-7E6F-EA45-9C42-1E175446ECD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1968,359 +3591,845 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A11E0B3-0CCD-4F3C-9D7D-368DDE3E33BB}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection sqref="A1:C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>1078</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>1162084</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>580503</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>8240</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>67897600</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>33944680</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>7842</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>61496964</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>30744561</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>9596</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>92083216</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>46036810</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>9634</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>92813956</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>46402161</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>6242</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>38962564</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>19478161</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>879</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>772641</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>385881</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>7282</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>53027524</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>26510121</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>5565</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>30969225</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>15481830</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>7689</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>59120721</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>29556516</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>1625</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <v>2640625</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>1319500</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>1187</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>1408969</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>703891</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>7124</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>50751376</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>25372126</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>9403</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <v>88416409</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <v>44203503</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="16" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>1745</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
         <v>3045025</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <v>1521640</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>3328</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
         <v>11075584</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
         <v>5536128</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>9638</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="3">
         <v>92891044</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
         <v>46440703</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="19" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>1564</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="3">
         <v>2446096</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="3">
         <v>1222266</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>9105</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="3">
         <v>82901025</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="3">
         <v>41445960</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="21" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>2450</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="3">
         <v>6002500</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="3">
         <v>3000025</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="22" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>3620</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="3">
         <v>13104400</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="3">
         <v>6550390</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="23" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>7139</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="3">
         <v>50965321</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="3">
         <v>25479091</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="24" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>2520</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="3">
         <v>6350400</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="3">
         <v>3173940</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="25" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <v>4151</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="3">
         <v>17230801</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="3">
         <v>8613325</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="26" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <v>9687</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="3">
         <v>93837969</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="3">
         <v>46914141</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="27" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
         <v>4304</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="3">
         <v>18524416</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="3">
         <v>9260056</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="28" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
         <v>9655</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="3">
         <v>93219025</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="3">
         <v>46604685</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="29" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <v>8845</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="3">
         <v>78234025</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="3">
         <v>39112590</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="30" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
         <v>2851</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="3">
         <v>8128201</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="3">
         <v>4062675</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="31" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
         <v>4739</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="3">
         <v>22458121</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="3">
         <v>11226691</v>
       </c>
     </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F96B15E3-3B8B-2941-9C5F-8182C58E2A13}">
+  <dimension ref="A1:C154"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="29.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>5698</v>
+      </c>
+      <c r="B2" s="2">
+        <v>32467204</v>
+      </c>
+      <c r="C2" s="2">
+        <v>16230753</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>8001</v>
+      </c>
+      <c r="B3" s="2">
+        <v>64016001</v>
+      </c>
+      <c r="C3" s="2">
+        <v>32004000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3301</v>
+      </c>
+      <c r="B4" s="2">
+        <v>10896601</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5446650</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2486</v>
+      </c>
+      <c r="B5" s="2">
+        <v>6180196</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3088855</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4332</v>
+      </c>
+      <c r="B6" s="2">
+        <v>18766224</v>
+      </c>
+      <c r="C6" s="2">
+        <v>9380946</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>516</v>
+      </c>
+      <c r="B7" s="2">
+        <v>266256</v>
+      </c>
+      <c r="C7" s="2">
+        <v>132870</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>8939</v>
+      </c>
+      <c r="B8" s="2">
+        <v>79905721</v>
+      </c>
+      <c r="C8" s="2">
+        <v>39948391</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>6932</v>
+      </c>
+      <c r="B9" s="2">
+        <v>48052624</v>
+      </c>
+      <c r="C9" s="2">
+        <v>24022846</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>5020</v>
+      </c>
+      <c r="B10" s="2">
+        <v>25200400</v>
+      </c>
+      <c r="C10" s="2">
+        <v>12597690</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9736</v>
+      </c>
+      <c r="B11" s="2">
+        <v>94789696</v>
+      </c>
+      <c r="C11" s="2">
+        <v>47389980</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>7913</v>
+      </c>
+      <c r="B12" s="2">
+        <v>62615569</v>
+      </c>
+      <c r="C12" s="2">
+        <v>31303828</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>2175</v>
+      </c>
+      <c r="B13" s="2">
+        <v>4730625</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2364225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>1273</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1620529</v>
+      </c>
+      <c r="C14" s="2">
+        <v>809628</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>1372</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1882384</v>
+      </c>
+      <c r="C15" s="2">
+        <v>940506</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>682</v>
+      </c>
+      <c r="B16" s="2">
+        <v>465124</v>
+      </c>
+      <c r="C16" s="2">
+        <v>232221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>9080</v>
+      </c>
+      <c r="B17" s="2">
+        <v>82446400</v>
+      </c>
+      <c r="C17" s="2">
+        <v>41218660</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>5191</v>
+      </c>
+      <c r="B18" s="2">
+        <v>26946481</v>
+      </c>
+      <c r="C18" s="2">
+        <v>13470645</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>4752</v>
+      </c>
+      <c r="B19" s="2">
+        <v>22581504</v>
+      </c>
+      <c r="C19" s="2">
+        <v>11288376</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>3225</v>
+      </c>
+      <c r="B20" s="2">
+        <v>10400625</v>
+      </c>
+      <c r="C20" s="2">
+        <v>5198700</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>2307</v>
+      </c>
+      <c r="B21" s="2">
+        <v>5322249</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2659971</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>4512</v>
+      </c>
+      <c r="B22" s="2">
+        <v>20358144</v>
+      </c>
+      <c r="C22" s="2">
+        <v>10176816</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>1096</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1201216</v>
+      </c>
+      <c r="C23" s="2">
+        <v>600060</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>7685</v>
+      </c>
+      <c r="B24" s="2">
+        <v>59059225</v>
+      </c>
+      <c r="C24" s="2">
+        <v>29525770</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>3940</v>
+      </c>
+      <c r="B25" s="2">
+        <v>15523600</v>
+      </c>
+      <c r="C25" s="2">
+        <v>7759830</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>1374</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1887876</v>
+      </c>
+      <c r="C26" s="2">
+        <v>943251</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>3469</v>
+      </c>
+      <c r="B27" s="2">
+        <v>12033961</v>
+      </c>
+      <c r="C27" s="2">
+        <v>6015246</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>4104</v>
+      </c>
+      <c r="B28" s="2">
+        <v>16842816</v>
+      </c>
+      <c r="C28" s="2">
+        <v>8419356</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>2892</v>
+      </c>
+      <c r="B29" s="2">
+        <v>8363664</v>
+      </c>
+      <c r="C29" s="2">
+        <v>4180386</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>2477</v>
+      </c>
+      <c r="B30" s="2">
+        <v>6135529</v>
+      </c>
+      <c r="C30" s="2">
+        <v>3066526</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>8933</v>
+      </c>
+      <c r="B31" s="2">
+        <v>79798489</v>
+      </c>
+      <c r="C31" s="2">
+        <v>39894778</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/testresults1.xlsx
+++ b/testresults1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaushallimbasiya/Documents/GitHub/CAB301-Assignment2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A07927-D956-7443-A9DC-2BD5440AD8BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D98B63-BD03-4C4A-8C66-A97EE071A258}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{081349F4-0C2E-45C9-AFE0-59D10EF7212F}"/>
   </bookViews>
@@ -954,6 +954,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="7.4713980029894418E-3"/>
+              <c:y val="0.16116302931946971"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3213,15 +3221,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:colOff>600074</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3592,7 +3600,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection sqref="A1:C31"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3954,7 +3962,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F96B15E3-3B8B-2941-9C5F-8182C58E2A13}">
   <dimension ref="A1:C154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>

--- a/testresults1.xlsx
+++ b/testresults1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaushallimbasiya/Documents/GitHub/CAB301-Assignment2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vaibhav Vachhani\Downloads\SEM-5\CAB301\Assignment 2\Assignment2\CAB301-Assignment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D98B63-BD03-4C4A-8C66-A97EE071A258}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372EDFCF-8792-496F-9B7C-D5A811DA25E7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{081349F4-0C2E-45C9-AFE0-59D10EF7212F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{081349F4-0C2E-45C9-AFE0-59D10EF7212F}"/>
   </bookViews>
   <sheets>
     <sheet name="testRun1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="5">
   <si>
     <t xml:space="preserve">ArraySize </t>
   </si>
@@ -45,12 +45,15 @@
   <si>
     <t>Array Size</t>
   </si>
+  <si>
+    <t>y</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,6 +80,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Apple bra"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -99,11 +107,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -771,6 +781,322 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8A3A-4C93-BF91-6105CF20E096}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>testRun1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:name>Theory comparision line</c:name>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-AU" sz="1400" baseline="0"/>
+                      <a:t>y = 2x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-AU" sz="1400" baseline="30000"/>
+                      <a:t>2</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-AU" sz="1400"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>testRun1!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1078</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8240</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7842</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9596</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9634</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6242</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>879</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7282</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5565</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7689</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1187</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7124</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9403</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1745</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3328</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9638</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1564</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9105</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2450</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3620</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7139</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2520</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4151</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9687</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4304</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9655</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8845</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2851</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4739</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>testRun1!$D$2:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>2324168</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>135795200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>122993928</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>184166432</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>185627912</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77925128</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1545282</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>106055048</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>61938450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>118241442</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5281250</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2817938</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>101502752</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>176832818</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6090050</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22151168</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>185782088</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4892192</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>165802050</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12005000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>26208800</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>101930642</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12700800</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>34461602</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>187675938</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>37048832</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>186438050</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>156468050</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>16256402</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44916242</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-12FB-439A-952F-73AE7D9DECF6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1760,6 +2086,292 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>testRun2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:name>Theory comparision</c:name>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>testRun2!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>5698</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2486</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4332</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>516</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8939</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6932</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9736</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7913</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2175</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1273</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1372</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>682</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9080</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5191</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4752</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3225</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2307</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4512</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1096</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7685</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3940</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1374</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3469</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4104</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2892</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2477</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8933</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>testRun2!$D$2:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>64934408</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128032002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21793202</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12360392</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37532448</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>532512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>159811442</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>96105248</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50400800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>189579392</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>125231138</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9461250</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3241058</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3764768</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>930248</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>164892800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>53892962</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45163008</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20801250</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10644498</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40716288</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2402432</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>118118450</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>31047200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3775752</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>24067922</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>33685632</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>16727328</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12271058</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>159596978</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0580-4270-9280-7C6BF39714B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -2034,8 +2646,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.16749836758210104"/>
           <c:y val="8.0754368320782338E-2"/>
-          <c:w val="0.71980917995006721"/>
-          <c:h val="4.2572178477690285E-2"/>
+          <c:w val="0.83250167485970328"/>
+          <c:h val="4.4164875190278112E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3597,21 +4209,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A11E0B3-0CCD-4F3C-9D7D-368DDE3E33BB}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="21">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3621,8 +4234,12 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" ht="21">
       <c r="A2" s="3">
         <v>1078</v>
       </c>
@@ -3632,8 +4249,13 @@
       <c r="C2" s="3">
         <v>580503</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D2" s="3">
+        <f>2*(A2*A2)</f>
+        <v>2324168</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="21">
       <c r="A3" s="3">
         <v>8240</v>
       </c>
@@ -3643,8 +4265,13 @@
       <c r="C3" s="3">
         <v>33944680</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D3" s="3">
+        <f t="shared" ref="D3:D31" si="0">2*(A3*A3)</f>
+        <v>135795200</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" ht="21">
       <c r="A4" s="3">
         <v>7842</v>
       </c>
@@ -3654,8 +4281,13 @@
       <c r="C4" s="3">
         <v>30744561</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D4" s="3">
+        <f t="shared" si="0"/>
+        <v>122993928</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="21">
       <c r="A5" s="3">
         <v>9596</v>
       </c>
@@ -3665,8 +4297,13 @@
       <c r="C5" s="3">
         <v>46036810</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>184166432</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" ht="21">
       <c r="A6" s="3">
         <v>9634</v>
       </c>
@@ -3676,8 +4313,13 @@
       <c r="C6" s="3">
         <v>46402161</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>185627912</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" ht="21">
       <c r="A7" s="3">
         <v>6242</v>
       </c>
@@ -3687,8 +4329,13 @@
       <c r="C7" s="3">
         <v>19478161</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>77925128</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" ht="21">
       <c r="A8" s="3">
         <v>879</v>
       </c>
@@ -3698,8 +4345,13 @@
       <c r="C8" s="3">
         <v>385881</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>1545282</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" ht="21">
       <c r="A9" s="3">
         <v>7282</v>
       </c>
@@ -3709,8 +4361,13 @@
       <c r="C9" s="3">
         <v>26510121</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>106055048</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" ht="21">
       <c r="A10" s="3">
         <v>5565</v>
       </c>
@@ -3720,8 +4377,13 @@
       <c r="C10" s="3">
         <v>15481830</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>61938450</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" ht="21">
       <c r="A11" s="3">
         <v>7689</v>
       </c>
@@ -3731,8 +4393,13 @@
       <c r="C11" s="3">
         <v>29556516</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>118241442</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" ht="21">
       <c r="A12" s="3">
         <v>1625</v>
       </c>
@@ -3742,8 +4409,13 @@
       <c r="C12" s="3">
         <v>1319500</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>5281250</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" ht="21">
       <c r="A13" s="3">
         <v>1187</v>
       </c>
@@ -3753,8 +4425,13 @@
       <c r="C13" s="3">
         <v>703891</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>2817938</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" ht="21">
       <c r="A14" s="3">
         <v>7124</v>
       </c>
@@ -3764,8 +4441,13 @@
       <c r="C14" s="3">
         <v>25372126</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>101502752</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" ht="21">
       <c r="A15" s="3">
         <v>9403</v>
       </c>
@@ -3775,8 +4457,13 @@
       <c r="C15" s="3">
         <v>44203503</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D15" s="3">
+        <f t="shared" si="0"/>
+        <v>176832818</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" ht="21">
       <c r="A16" s="3">
         <v>1745</v>
       </c>
@@ -3786,8 +4473,13 @@
       <c r="C16" s="3">
         <v>1521640</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D16" s="3">
+        <f t="shared" si="0"/>
+        <v>6090050</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" ht="21">
       <c r="A17" s="3">
         <v>3328</v>
       </c>
@@ -3797,8 +4489,13 @@
       <c r="C17" s="3">
         <v>5536128</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D17" s="3">
+        <f t="shared" si="0"/>
+        <v>22151168</v>
+      </c>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" ht="21">
       <c r="A18" s="3">
         <v>9638</v>
       </c>
@@ -3808,8 +4505,13 @@
       <c r="C18" s="3">
         <v>46440703</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D18" s="3">
+        <f t="shared" si="0"/>
+        <v>185782088</v>
+      </c>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" ht="21">
       <c r="A19" s="3">
         <v>1564</v>
       </c>
@@ -3819,8 +4521,13 @@
       <c r="C19" s="3">
         <v>1222266</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D19" s="3">
+        <f t="shared" si="0"/>
+        <v>4892192</v>
+      </c>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" ht="21">
       <c r="A20" s="3">
         <v>9105</v>
       </c>
@@ -3830,8 +4537,13 @@
       <c r="C20" s="3">
         <v>41445960</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D20" s="3">
+        <f t="shared" si="0"/>
+        <v>165802050</v>
+      </c>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" ht="21">
       <c r="A21" s="3">
         <v>2450</v>
       </c>
@@ -3841,8 +4553,13 @@
       <c r="C21" s="3">
         <v>3000025</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D21" s="3">
+        <f t="shared" si="0"/>
+        <v>12005000</v>
+      </c>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" ht="21">
       <c r="A22" s="3">
         <v>3620</v>
       </c>
@@ -3852,8 +4569,13 @@
       <c r="C22" s="3">
         <v>6550390</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D22" s="3">
+        <f t="shared" si="0"/>
+        <v>26208800</v>
+      </c>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" ht="21">
       <c r="A23" s="3">
         <v>7139</v>
       </c>
@@ -3863,8 +4585,13 @@
       <c r="C23" s="3">
         <v>25479091</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D23" s="3">
+        <f t="shared" si="0"/>
+        <v>101930642</v>
+      </c>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" ht="21">
       <c r="A24" s="3">
         <v>2520</v>
       </c>
@@ -3874,8 +4601,13 @@
       <c r="C24" s="3">
         <v>3173940</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D24" s="3">
+        <f t="shared" si="0"/>
+        <v>12700800</v>
+      </c>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" ht="21">
       <c r="A25" s="3">
         <v>4151</v>
       </c>
@@ -3885,8 +4617,13 @@
       <c r="C25" s="3">
         <v>8613325</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D25" s="3">
+        <f t="shared" si="0"/>
+        <v>34461602</v>
+      </c>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" ht="21">
       <c r="A26" s="3">
         <v>9687</v>
       </c>
@@ -3896,8 +4633,13 @@
       <c r="C26" s="3">
         <v>46914141</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D26" s="3">
+        <f t="shared" si="0"/>
+        <v>187675938</v>
+      </c>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" ht="21">
       <c r="A27" s="3">
         <v>4304</v>
       </c>
@@ -3907,8 +4649,13 @@
       <c r="C27" s="3">
         <v>9260056</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D27" s="3">
+        <f t="shared" si="0"/>
+        <v>37048832</v>
+      </c>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" ht="21">
       <c r="A28" s="3">
         <v>9655</v>
       </c>
@@ -3918,8 +4665,13 @@
       <c r="C28" s="3">
         <v>46604685</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D28" s="3">
+        <f t="shared" si="0"/>
+        <v>186438050</v>
+      </c>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" ht="21">
       <c r="A29" s="3">
         <v>8845</v>
       </c>
@@ -3929,8 +4681,13 @@
       <c r="C29" s="3">
         <v>39112590</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D29" s="3">
+        <f t="shared" si="0"/>
+        <v>156468050</v>
+      </c>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" ht="21">
       <c r="A30" s="3">
         <v>2851</v>
       </c>
@@ -3940,8 +4697,13 @@
       <c r="C30" s="3">
         <v>4062675</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D30" s="3">
+        <f t="shared" si="0"/>
+        <v>16256402</v>
+      </c>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" ht="21">
       <c r="A31" s="3">
         <v>4739</v>
       </c>
@@ -3951,30 +4713,37 @@
       <c r="C31" s="3">
         <v>11226691</v>
       </c>
+      <c r="D31" s="3">
+        <f t="shared" si="0"/>
+        <v>44916242</v>
+      </c>
+      <c r="E31" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F96B15E3-3B8B-2941-9C5F-8182C58E2A13}">
-  <dimension ref="A1:C154"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="29.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="20.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -3984,8 +4753,11 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20.25">
       <c r="A2" s="2">
         <v>5698</v>
       </c>
@@ -3995,8 +4767,12 @@
       <c r="C2" s="2">
         <v>16230753</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="D2" s="4">
+        <f>2*(A2*A2)</f>
+        <v>64934408</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20.25">
       <c r="A3" s="2">
         <v>8001</v>
       </c>
@@ -4006,8 +4782,12 @@
       <c r="C3" s="2">
         <v>32004000</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:D31" si="0">2*(A3*A3)</f>
+        <v>128032002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20.25">
       <c r="A4" s="2">
         <v>3301</v>
       </c>
@@ -4017,8 +4797,12 @@
       <c r="C4" s="2">
         <v>5446650</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>21793202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20.25">
       <c r="A5" s="2">
         <v>2486</v>
       </c>
@@ -4028,8 +4812,12 @@
       <c r="C5" s="2">
         <v>3088855</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>12360392</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20.25">
       <c r="A6" s="2">
         <v>4332</v>
       </c>
@@ -4039,8 +4827,12 @@
       <c r="C6" s="2">
         <v>9380946</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>37532448</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20.25">
       <c r="A7" s="2">
         <v>516</v>
       </c>
@@ -4050,8 +4842,12 @@
       <c r="C7" s="2">
         <v>132870</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>532512</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20.25">
       <c r="A8" s="2">
         <v>8939</v>
       </c>
@@ -4061,8 +4857,12 @@
       <c r="C8" s="2">
         <v>39948391</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>159811442</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20.25">
       <c r="A9" s="2">
         <v>6932</v>
       </c>
@@ -4072,8 +4872,12 @@
       <c r="C9" s="2">
         <v>24022846</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>96105248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="20.25">
       <c r="A10" s="2">
         <v>5020</v>
       </c>
@@ -4083,8 +4887,12 @@
       <c r="C10" s="2">
         <v>12597690</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>50400800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20.25">
       <c r="A11" s="2">
         <v>9736</v>
       </c>
@@ -4094,8 +4902,12 @@
       <c r="C11" s="2">
         <v>47389980</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>189579392</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="20.25">
       <c r="A12" s="2">
         <v>7913</v>
       </c>
@@ -4105,8 +4917,12 @@
       <c r="C12" s="2">
         <v>31303828</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>125231138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="20.25">
       <c r="A13" s="2">
         <v>2175</v>
       </c>
@@ -4116,8 +4932,12 @@
       <c r="C13" s="2">
         <v>2364225</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>9461250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="20.25">
       <c r="A14" s="2">
         <v>1273</v>
       </c>
@@ -4127,8 +4947,12 @@
       <c r="C14" s="2">
         <v>809628</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>3241058</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="20.25">
       <c r="A15" s="2">
         <v>1372</v>
       </c>
@@ -4138,8 +4962,12 @@
       <c r="C15" s="2">
         <v>940506</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="D15" s="4">
+        <f t="shared" si="0"/>
+        <v>3764768</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="20.25">
       <c r="A16" s="2">
         <v>682</v>
       </c>
@@ -4149,8 +4977,12 @@
       <c r="C16" s="2">
         <v>232221</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>930248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="20.25">
       <c r="A17" s="2">
         <v>9080</v>
       </c>
@@ -4160,8 +4992,12 @@
       <c r="C17" s="2">
         <v>41218660</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="D17" s="4">
+        <f t="shared" si="0"/>
+        <v>164892800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="20.25">
       <c r="A18" s="2">
         <v>5191</v>
       </c>
@@ -4171,8 +5007,12 @@
       <c r="C18" s="2">
         <v>13470645</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="D18" s="4">
+        <f t="shared" si="0"/>
+        <v>53892962</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="20.25">
       <c r="A19" s="2">
         <v>4752</v>
       </c>
@@ -4182,8 +5022,12 @@
       <c r="C19" s="2">
         <v>11288376</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="D19" s="4">
+        <f t="shared" si="0"/>
+        <v>45163008</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="20.25">
       <c r="A20" s="2">
         <v>3225</v>
       </c>
@@ -4193,8 +5037,12 @@
       <c r="C20" s="2">
         <v>5198700</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="D20" s="4">
+        <f t="shared" si="0"/>
+        <v>20801250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="20.25">
       <c r="A21" s="2">
         <v>2307</v>
       </c>
@@ -4204,8 +5052,12 @@
       <c r="C21" s="2">
         <v>2659971</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="D21" s="4">
+        <f t="shared" si="0"/>
+        <v>10644498</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="20.25">
       <c r="A22" s="2">
         <v>4512</v>
       </c>
@@ -4215,8 +5067,12 @@
       <c r="C22" s="2">
         <v>10176816</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="D22" s="4">
+        <f t="shared" si="0"/>
+        <v>40716288</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="20.25">
       <c r="A23" s="2">
         <v>1096</v>
       </c>
@@ -4226,8 +5082,12 @@
       <c r="C23" s="2">
         <v>600060</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="D23" s="4">
+        <f t="shared" si="0"/>
+        <v>2402432</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="20.25">
       <c r="A24" s="2">
         <v>7685</v>
       </c>
@@ -4237,8 +5097,12 @@
       <c r="C24" s="2">
         <v>29525770</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="D24" s="4">
+        <f t="shared" si="0"/>
+        <v>118118450</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="20.25">
       <c r="A25" s="2">
         <v>3940</v>
       </c>
@@ -4248,8 +5112,12 @@
       <c r="C25" s="2">
         <v>7759830</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="D25" s="4">
+        <f t="shared" si="0"/>
+        <v>31047200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="20.25">
       <c r="A26" s="2">
         <v>1374</v>
       </c>
@@ -4259,8 +5127,12 @@
       <c r="C26" s="2">
         <v>943251</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="D26" s="4">
+        <f t="shared" si="0"/>
+        <v>3775752</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="20.25">
       <c r="A27" s="2">
         <v>3469</v>
       </c>
@@ -4270,8 +5142,12 @@
       <c r="C27" s="2">
         <v>6015246</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="D27" s="4">
+        <f t="shared" si="0"/>
+        <v>24067922</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="20.25">
       <c r="A28" s="2">
         <v>4104</v>
       </c>
@@ -4281,8 +5157,12 @@
       <c r="C28" s="2">
         <v>8419356</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="D28" s="4">
+        <f t="shared" si="0"/>
+        <v>33685632</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="21">
       <c r="A29" s="2">
         <v>2892</v>
       </c>
@@ -4292,8 +5172,12 @@
       <c r="C29" s="2">
         <v>4180386</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="D29" s="5">
+        <f t="shared" si="0"/>
+        <v>16727328</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="21">
       <c r="A30" s="2">
         <v>2477</v>
       </c>
@@ -4303,8 +5187,12 @@
       <c r="C30" s="2">
         <v>3066526</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="D30" s="5">
+        <f t="shared" si="0"/>
+        <v>12271058</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="21">
       <c r="A31" s="2">
         <v>8933</v>
       </c>
@@ -4314,130 +5202,17 @@
       <c r="C31" s="2">
         <v>39894778</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="D31" s="5">
+        <f t="shared" si="0"/>
+        <v>159596978</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="21">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/testresults1.xlsx
+++ b/testresults1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vaibhav Vachhani\Downloads\SEM-5\CAB301\Assignment 2\Assignment2\CAB301-Assignment2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaushallimbasiya/Documents/GitHub/CAB301-Assignment2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372EDFCF-8792-496F-9B7C-D5A811DA25E7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D98B63-BD03-4C4A-8C66-A97EE071A258}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{081349F4-0C2E-45C9-AFE0-59D10EF7212F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{081349F4-0C2E-45C9-AFE0-59D10EF7212F}"/>
   </bookViews>
   <sheets>
     <sheet name="testRun1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t xml:space="preserve">ArraySize </t>
   </si>
@@ -45,15 +45,12 @@
   <si>
     <t>Array Size</t>
   </si>
-  <si>
-    <t>y</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,11 +77,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Apple bra"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -107,13 +99,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -781,322 +771,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8A3A-4C93-BF91-6105CF20E096}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>testRun1!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>y</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:name>Theory comparision line</c:name>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="power"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1">
-                            <a:lumMod val="65000"/>
-                            <a:lumOff val="35000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="en-AU" sz="1400" baseline="0"/>
-                      <a:t>y = 2x</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-AU" sz="1400" baseline="30000"/>
-                      <a:t>2</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-AU" sz="1400"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>testRun1!$A$2:$A$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>1078</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8240</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7842</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9596</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9634</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6242</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>879</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7282</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5565</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7689</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1625</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1187</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7124</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9403</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1745</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3328</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9638</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1564</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>9105</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2450</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3620</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7139</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2520</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4151</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>9687</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4304</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>9655</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>8845</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2851</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4739</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>testRun1!$D$2:$D$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>2324168</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>135795200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>122993928</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>184166432</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>185627912</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>77925128</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1545282</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>106055048</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>61938450</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>118241442</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5281250</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2817938</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>101502752</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>176832818</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6090050</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>22151168</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>185782088</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4892192</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>165802050</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>12005000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>26208800</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>101930642</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>12700800</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>34461602</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>187675938</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>37048832</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>186438050</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>156468050</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>16256402</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>44916242</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-12FB-439A-952F-73AE7D9DECF6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2086,292 +1760,6 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>testRun2!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>y</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:name>Theory comparision</c:name>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="power"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>testRun2!$A$2:$A$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>5698</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3301</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2486</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4332</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>516</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8939</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6932</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5020</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9736</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7913</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2175</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1273</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1372</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>682</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>9080</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5191</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4752</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3225</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2307</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4512</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1096</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7685</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3940</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1374</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3469</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4104</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2892</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2477</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>8933</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>testRun2!$D$2:$D$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>64934408</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>128032002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>21793202</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12360392</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>37532448</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>532512</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>159811442</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>96105248</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>50400800</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>189579392</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>125231138</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9461250</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3241058</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3764768</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>930248</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>164892800</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>53892962</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>45163008</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>20801250</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>10644498</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>40716288</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2402432</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>118118450</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>31047200</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3775752</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>24067922</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>33685632</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>16727328</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>12271058</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>159596978</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0580-4270-9280-7C6BF39714B8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -2646,8 +2034,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.16749836758210104"/>
           <c:y val="8.0754368320782338E-2"/>
-          <c:w val="0.83250167485970328"/>
-          <c:h val="4.4164875190278112E-2"/>
+          <c:w val="0.71980917995006721"/>
+          <c:h val="4.2572178477690285E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4209,22 +3597,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A11E0B3-0CCD-4F3C-9D7D-368DDE3E33BB}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4234,12 +3621,8 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" ht="21">
+    </row>
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1078</v>
       </c>
@@ -4249,13 +3632,8 @@
       <c r="C2" s="3">
         <v>580503</v>
       </c>
-      <c r="D2" s="3">
-        <f>2*(A2*A2)</f>
-        <v>2324168</v>
-      </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" ht="21">
+    </row>
+    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>8240</v>
       </c>
@@ -4265,13 +3643,8 @@
       <c r="C3" s="3">
         <v>33944680</v>
       </c>
-      <c r="D3" s="3">
-        <f t="shared" ref="D3:D31" si="0">2*(A3*A3)</f>
-        <v>135795200</v>
-      </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" ht="21">
+    </row>
+    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>7842</v>
       </c>
@@ -4281,13 +3654,8 @@
       <c r="C4" s="3">
         <v>30744561</v>
       </c>
-      <c r="D4" s="3">
-        <f t="shared" si="0"/>
-        <v>122993928</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" ht="21">
+    </row>
+    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>9596</v>
       </c>
@@ -4297,13 +3665,8 @@
       <c r="C5" s="3">
         <v>46036810</v>
       </c>
-      <c r="D5" s="3">
-        <f t="shared" si="0"/>
-        <v>184166432</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" ht="21">
+    </row>
+    <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>9634</v>
       </c>
@@ -4313,13 +3676,8 @@
       <c r="C6" s="3">
         <v>46402161</v>
       </c>
-      <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>185627912</v>
-      </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" ht="21">
+    </row>
+    <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6242</v>
       </c>
@@ -4329,13 +3687,8 @@
       <c r="C7" s="3">
         <v>19478161</v>
       </c>
-      <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>77925128</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" ht="21">
+    </row>
+    <row r="8" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>879</v>
       </c>
@@ -4345,13 +3698,8 @@
       <c r="C8" s="3">
         <v>385881</v>
       </c>
-      <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>1545282</v>
-      </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" ht="21">
+    </row>
+    <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7282</v>
       </c>
@@ -4361,13 +3709,8 @@
       <c r="C9" s="3">
         <v>26510121</v>
       </c>
-      <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>106055048</v>
-      </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" ht="21">
+    </row>
+    <row r="10" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>5565</v>
       </c>
@@ -4377,13 +3720,8 @@
       <c r="C10" s="3">
         <v>15481830</v>
       </c>
-      <c r="D10" s="3">
-        <f t="shared" si="0"/>
-        <v>61938450</v>
-      </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" ht="21">
+    </row>
+    <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>7689</v>
       </c>
@@ -4393,13 +3731,8 @@
       <c r="C11" s="3">
         <v>29556516</v>
       </c>
-      <c r="D11" s="3">
-        <f t="shared" si="0"/>
-        <v>118241442</v>
-      </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" ht="21">
+    </row>
+    <row r="12" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>1625</v>
       </c>
@@ -4409,13 +3742,8 @@
       <c r="C12" s="3">
         <v>1319500</v>
       </c>
-      <c r="D12" s="3">
-        <f t="shared" si="0"/>
-        <v>5281250</v>
-      </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" ht="21">
+    </row>
+    <row r="13" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>1187</v>
       </c>
@@ -4425,13 +3753,8 @@
       <c r="C13" s="3">
         <v>703891</v>
       </c>
-      <c r="D13" s="3">
-        <f t="shared" si="0"/>
-        <v>2817938</v>
-      </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" ht="21">
+    </row>
+    <row r="14" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>7124</v>
       </c>
@@ -4441,13 +3764,8 @@
       <c r="C14" s="3">
         <v>25372126</v>
       </c>
-      <c r="D14" s="3">
-        <f t="shared" si="0"/>
-        <v>101502752</v>
-      </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" ht="21">
+    </row>
+    <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>9403</v>
       </c>
@@ -4457,13 +3775,8 @@
       <c r="C15" s="3">
         <v>44203503</v>
       </c>
-      <c r="D15" s="3">
-        <f t="shared" si="0"/>
-        <v>176832818</v>
-      </c>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" ht="21">
+    </row>
+    <row r="16" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>1745</v>
       </c>
@@ -4473,13 +3786,8 @@
       <c r="C16" s="3">
         <v>1521640</v>
       </c>
-      <c r="D16" s="3">
-        <f t="shared" si="0"/>
-        <v>6090050</v>
-      </c>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" ht="21">
+    </row>
+    <row r="17" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>3328</v>
       </c>
@@ -4489,13 +3797,8 @@
       <c r="C17" s="3">
         <v>5536128</v>
       </c>
-      <c r="D17" s="3">
-        <f t="shared" si="0"/>
-        <v>22151168</v>
-      </c>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" ht="21">
+    </row>
+    <row r="18" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>9638</v>
       </c>
@@ -4505,13 +3808,8 @@
       <c r="C18" s="3">
         <v>46440703</v>
       </c>
-      <c r="D18" s="3">
-        <f t="shared" si="0"/>
-        <v>185782088</v>
-      </c>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" ht="21">
+    </row>
+    <row r="19" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>1564</v>
       </c>
@@ -4521,13 +3819,8 @@
       <c r="C19" s="3">
         <v>1222266</v>
       </c>
-      <c r="D19" s="3">
-        <f t="shared" si="0"/>
-        <v>4892192</v>
-      </c>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" ht="21">
+    </row>
+    <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>9105</v>
       </c>
@@ -4537,13 +3830,8 @@
       <c r="C20" s="3">
         <v>41445960</v>
       </c>
-      <c r="D20" s="3">
-        <f t="shared" si="0"/>
-        <v>165802050</v>
-      </c>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" ht="21">
+    </row>
+    <row r="21" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>2450</v>
       </c>
@@ -4553,13 +3841,8 @@
       <c r="C21" s="3">
         <v>3000025</v>
       </c>
-      <c r="D21" s="3">
-        <f t="shared" si="0"/>
-        <v>12005000</v>
-      </c>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" ht="21">
+    </row>
+    <row r="22" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>3620</v>
       </c>
@@ -4569,13 +3852,8 @@
       <c r="C22" s="3">
         <v>6550390</v>
       </c>
-      <c r="D22" s="3">
-        <f t="shared" si="0"/>
-        <v>26208800</v>
-      </c>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5" ht="21">
+    </row>
+    <row r="23" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>7139</v>
       </c>
@@ -4585,13 +3863,8 @@
       <c r="C23" s="3">
         <v>25479091</v>
       </c>
-      <c r="D23" s="3">
-        <f t="shared" si="0"/>
-        <v>101930642</v>
-      </c>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" ht="21">
+    </row>
+    <row r="24" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>2520</v>
       </c>
@@ -4601,13 +3874,8 @@
       <c r="C24" s="3">
         <v>3173940</v>
       </c>
-      <c r="D24" s="3">
-        <f t="shared" si="0"/>
-        <v>12700800</v>
-      </c>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" ht="21">
+    </row>
+    <row r="25" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>4151</v>
       </c>
@@ -4617,13 +3885,8 @@
       <c r="C25" s="3">
         <v>8613325</v>
       </c>
-      <c r="D25" s="3">
-        <f t="shared" si="0"/>
-        <v>34461602</v>
-      </c>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" ht="21">
+    </row>
+    <row r="26" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>9687</v>
       </c>
@@ -4633,13 +3896,8 @@
       <c r="C26" s="3">
         <v>46914141</v>
       </c>
-      <c r="D26" s="3">
-        <f t="shared" si="0"/>
-        <v>187675938</v>
-      </c>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" ht="21">
+    </row>
+    <row r="27" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>4304</v>
       </c>
@@ -4649,13 +3907,8 @@
       <c r="C27" s="3">
         <v>9260056</v>
       </c>
-      <c r="D27" s="3">
-        <f t="shared" si="0"/>
-        <v>37048832</v>
-      </c>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:5" ht="21">
+    </row>
+    <row r="28" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>9655</v>
       </c>
@@ -4665,13 +3918,8 @@
       <c r="C28" s="3">
         <v>46604685</v>
       </c>
-      <c r="D28" s="3">
-        <f t="shared" si="0"/>
-        <v>186438050</v>
-      </c>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="1:5" ht="21">
+    </row>
+    <row r="29" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>8845</v>
       </c>
@@ -4681,13 +3929,8 @@
       <c r="C29" s="3">
         <v>39112590</v>
       </c>
-      <c r="D29" s="3">
-        <f t="shared" si="0"/>
-        <v>156468050</v>
-      </c>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:5" ht="21">
+    </row>
+    <row r="30" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>2851</v>
       </c>
@@ -4697,13 +3940,8 @@
       <c r="C30" s="3">
         <v>4062675</v>
       </c>
-      <c r="D30" s="3">
-        <f t="shared" si="0"/>
-        <v>16256402</v>
-      </c>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:5" ht="21">
+    </row>
+    <row r="31" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>4739</v>
       </c>
@@ -4713,37 +3951,30 @@
       <c r="C31" s="3">
         <v>11226691</v>
       </c>
-      <c r="D31" s="3">
-        <f t="shared" si="0"/>
-        <v>44916242</v>
-      </c>
-      <c r="E31" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F96B15E3-3B8B-2941-9C5F-8182C58E2A13}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:C154"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.85546875" style="1"/>
+    <col min="1" max="1" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="29.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.25">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -4753,11 +3984,8 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="20.25">
+    </row>
+    <row r="2" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>5698</v>
       </c>
@@ -4767,12 +3995,8 @@
       <c r="C2" s="2">
         <v>16230753</v>
       </c>
-      <c r="D2" s="4">
-        <f>2*(A2*A2)</f>
-        <v>64934408</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="20.25">
+    </row>
+    <row r="3" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>8001</v>
       </c>
@@ -4782,12 +4006,8 @@
       <c r="C3" s="2">
         <v>32004000</v>
       </c>
-      <c r="D3" s="4">
-        <f t="shared" ref="D3:D31" si="0">2*(A3*A3)</f>
-        <v>128032002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="20.25">
+    </row>
+    <row r="4" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3301</v>
       </c>
@@ -4797,12 +4017,8 @@
       <c r="C4" s="2">
         <v>5446650</v>
       </c>
-      <c r="D4" s="4">
-        <f t="shared" si="0"/>
-        <v>21793202</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="20.25">
+    </row>
+    <row r="5" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2486</v>
       </c>
@@ -4812,12 +4028,8 @@
       <c r="C5" s="2">
         <v>3088855</v>
       </c>
-      <c r="D5" s="4">
-        <f t="shared" si="0"/>
-        <v>12360392</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="20.25">
+    </row>
+    <row r="6" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4332</v>
       </c>
@@ -4827,12 +4039,8 @@
       <c r="C6" s="2">
         <v>9380946</v>
       </c>
-      <c r="D6" s="4">
-        <f t="shared" si="0"/>
-        <v>37532448</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="20.25">
+    </row>
+    <row r="7" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>516</v>
       </c>
@@ -4842,12 +4050,8 @@
       <c r="C7" s="2">
         <v>132870</v>
       </c>
-      <c r="D7" s="4">
-        <f t="shared" si="0"/>
-        <v>532512</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="20.25">
+    </row>
+    <row r="8" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>8939</v>
       </c>
@@ -4857,12 +4061,8 @@
       <c r="C8" s="2">
         <v>39948391</v>
       </c>
-      <c r="D8" s="4">
-        <f t="shared" si="0"/>
-        <v>159811442</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="20.25">
+    </row>
+    <row r="9" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6932</v>
       </c>
@@ -4872,12 +4072,8 @@
       <c r="C9" s="2">
         <v>24022846</v>
       </c>
-      <c r="D9" s="4">
-        <f t="shared" si="0"/>
-        <v>96105248</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="20.25">
+    </row>
+    <row r="10" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>5020</v>
       </c>
@@ -4887,12 +4083,8 @@
       <c r="C10" s="2">
         <v>12597690</v>
       </c>
-      <c r="D10" s="4">
-        <f t="shared" si="0"/>
-        <v>50400800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="20.25">
+    </row>
+    <row r="11" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9736</v>
       </c>
@@ -4902,12 +4094,8 @@
       <c r="C11" s="2">
         <v>47389980</v>
       </c>
-      <c r="D11" s="4">
-        <f t="shared" si="0"/>
-        <v>189579392</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="20.25">
+    </row>
+    <row r="12" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>7913</v>
       </c>
@@ -4917,12 +4105,8 @@
       <c r="C12" s="2">
         <v>31303828</v>
       </c>
-      <c r="D12" s="4">
-        <f t="shared" si="0"/>
-        <v>125231138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="20.25">
+    </row>
+    <row r="13" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>2175</v>
       </c>
@@ -4932,12 +4116,8 @@
       <c r="C13" s="2">
         <v>2364225</v>
       </c>
-      <c r="D13" s="4">
-        <f t="shared" si="0"/>
-        <v>9461250</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="20.25">
+    </row>
+    <row r="14" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1273</v>
       </c>
@@ -4947,12 +4127,8 @@
       <c r="C14" s="2">
         <v>809628</v>
       </c>
-      <c r="D14" s="4">
-        <f t="shared" si="0"/>
-        <v>3241058</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="20.25">
+    </row>
+    <row r="15" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1372</v>
       </c>
@@ -4962,12 +4138,8 @@
       <c r="C15" s="2">
         <v>940506</v>
       </c>
-      <c r="D15" s="4">
-        <f t="shared" si="0"/>
-        <v>3764768</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="20.25">
+    </row>
+    <row r="16" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>682</v>
       </c>
@@ -4977,12 +4149,8 @@
       <c r="C16" s="2">
         <v>232221</v>
       </c>
-      <c r="D16" s="4">
-        <f t="shared" si="0"/>
-        <v>930248</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="20.25">
+    </row>
+    <row r="17" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>9080</v>
       </c>
@@ -4992,12 +4160,8 @@
       <c r="C17" s="2">
         <v>41218660</v>
       </c>
-      <c r="D17" s="4">
-        <f t="shared" si="0"/>
-        <v>164892800</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="20.25">
+    </row>
+    <row r="18" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>5191</v>
       </c>
@@ -5007,12 +4171,8 @@
       <c r="C18" s="2">
         <v>13470645</v>
       </c>
-      <c r="D18" s="4">
-        <f t="shared" si="0"/>
-        <v>53892962</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="20.25">
+    </row>
+    <row r="19" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>4752</v>
       </c>
@@ -5022,12 +4182,8 @@
       <c r="C19" s="2">
         <v>11288376</v>
       </c>
-      <c r="D19" s="4">
-        <f t="shared" si="0"/>
-        <v>45163008</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="20.25">
+    </row>
+    <row r="20" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>3225</v>
       </c>
@@ -5037,12 +4193,8 @@
       <c r="C20" s="2">
         <v>5198700</v>
       </c>
-      <c r="D20" s="4">
-        <f t="shared" si="0"/>
-        <v>20801250</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="20.25">
+    </row>
+    <row r="21" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>2307</v>
       </c>
@@ -5052,12 +4204,8 @@
       <c r="C21" s="2">
         <v>2659971</v>
       </c>
-      <c r="D21" s="4">
-        <f t="shared" si="0"/>
-        <v>10644498</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="20.25">
+    </row>
+    <row r="22" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>4512</v>
       </c>
@@ -5067,12 +4215,8 @@
       <c r="C22" s="2">
         <v>10176816</v>
       </c>
-      <c r="D22" s="4">
-        <f t="shared" si="0"/>
-        <v>40716288</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="20.25">
+    </row>
+    <row r="23" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>1096</v>
       </c>
@@ -5082,12 +4226,8 @@
       <c r="C23" s="2">
         <v>600060</v>
       </c>
-      <c r="D23" s="4">
-        <f t="shared" si="0"/>
-        <v>2402432</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="20.25">
+    </row>
+    <row r="24" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>7685</v>
       </c>
@@ -5097,12 +4237,8 @@
       <c r="C24" s="2">
         <v>29525770</v>
       </c>
-      <c r="D24" s="4">
-        <f t="shared" si="0"/>
-        <v>118118450</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="20.25">
+    </row>
+    <row r="25" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>3940</v>
       </c>
@@ -5112,12 +4248,8 @@
       <c r="C25" s="2">
         <v>7759830</v>
       </c>
-      <c r="D25" s="4">
-        <f t="shared" si="0"/>
-        <v>31047200</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="20.25">
+    </row>
+    <row r="26" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>1374</v>
       </c>
@@ -5127,12 +4259,8 @@
       <c r="C26" s="2">
         <v>943251</v>
       </c>
-      <c r="D26" s="4">
-        <f t="shared" si="0"/>
-        <v>3775752</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="20.25">
+    </row>
+    <row r="27" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>3469</v>
       </c>
@@ -5142,12 +4270,8 @@
       <c r="C27" s="2">
         <v>6015246</v>
       </c>
-      <c r="D27" s="4">
-        <f t="shared" si="0"/>
-        <v>24067922</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="20.25">
+    </row>
+    <row r="28" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>4104</v>
       </c>
@@ -5157,12 +4281,8 @@
       <c r="C28" s="2">
         <v>8419356</v>
       </c>
-      <c r="D28" s="4">
-        <f t="shared" si="0"/>
-        <v>33685632</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="21">
+    </row>
+    <row r="29" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>2892</v>
       </c>
@@ -5172,12 +4292,8 @@
       <c r="C29" s="2">
         <v>4180386</v>
       </c>
-      <c r="D29" s="5">
-        <f t="shared" si="0"/>
-        <v>16727328</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="21">
+    </row>
+    <row r="30" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>2477</v>
       </c>
@@ -5187,12 +4303,8 @@
       <c r="C30" s="2">
         <v>3066526</v>
       </c>
-      <c r="D30" s="5">
-        <f t="shared" si="0"/>
-        <v>12271058</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="21">
+    </row>
+    <row r="31" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>8933</v>
       </c>
@@ -5202,17 +4314,130 @@
       <c r="C31" s="2">
         <v>39894778</v>
       </c>
-      <c r="D31" s="5">
-        <f t="shared" si="0"/>
-        <v>159596978</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="21">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-    </row>
+    </row>
+    <row r="32" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/testresults1.xlsx
+++ b/testresults1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vaibhav Vachhani\Downloads\SEM-5\CAB301\Assignment 2\Assignment2\CAB301-Assignment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372EDFCF-8792-496F-9B7C-D5A811DA25E7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFE3414-4A14-4A3A-8CB7-A51EF3ED6ABF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{081349F4-0C2E-45C9-AFE0-59D10EF7212F}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t xml:space="preserve">ArraySize </t>
   </si>
@@ -4731,7 +4731,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75"/>

--- a/testresults1.xlsx
+++ b/testresults1.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vaibhav Vachhani\Downloads\SEM-5\CAB301\Assignment 2\Assignment2\CAB301-Assignment2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaushallimbasiya/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFE3414-4A14-4A3A-8CB7-A51EF3ED6ABF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B68C32D-9AF1-5F40-A961-2C64DB6326F0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{081349F4-0C2E-45C9-AFE0-59D10EF7212F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16700" activeTab="1" xr2:uid="{081349F4-0C2E-45C9-AFE0-59D10EF7212F}"/>
   </bookViews>
   <sheets>
-    <sheet name="testRun1" sheetId="1" r:id="rId1"/>
-    <sheet name="testRun2" sheetId="3" r:id="rId2"/>
+    <sheet name="testRun1 Without Duplicate" sheetId="1" r:id="rId1"/>
+    <sheet name="testRun2 Without Duplicate" sheetId="3" r:id="rId2"/>
+    <sheet name="testRun1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="4">
   <si>
     <t xml:space="preserve">ArraySize </t>
   </si>
@@ -45,15 +46,12 @@
   <si>
     <t>Array Size</t>
   </si>
-  <si>
-    <t>y</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,11 +78,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Apple bra"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -107,13 +100,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -217,7 +208,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>testRun1!$B$1</c:f>
+              <c:f>'testRun1 Without Duplicate'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -295,7 +286,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>testRun1!$A$2:$A$31</c:f>
+              <c:f>'testRun1 Without Duplicate'!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -394,7 +385,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>testRun1!$B$2:$B$31</c:f>
+              <c:f>'testRun1 Without Duplicate'!$B$2:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -503,7 +494,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>testRun1!$C$1</c:f>
+              <c:f>'testRun1 Without Duplicate'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -581,7 +572,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>testRun1!$A$2:$A$31</c:f>
+              <c:f>'testRun1 Without Duplicate'!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -680,7 +671,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>testRun1!$C$2:$C$31</c:f>
+              <c:f>'testRun1 Without Duplicate'!$C$2:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -781,322 +772,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8A3A-4C93-BF91-6105CF20E096}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>testRun1!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>y</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:name>Theory comparision line</c:name>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="power"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1">
-                            <a:lumMod val="65000"/>
-                            <a:lumOff val="35000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="en-AU" sz="1400" baseline="0"/>
-                      <a:t>y = 2x</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-AU" sz="1400" baseline="30000"/>
-                      <a:t>2</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-AU" sz="1400"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>testRun1!$A$2:$A$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>1078</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8240</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7842</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9596</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9634</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6242</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>879</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7282</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5565</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7689</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1625</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1187</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7124</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9403</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1745</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3328</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9638</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1564</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>9105</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2450</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3620</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7139</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2520</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4151</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>9687</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4304</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>9655</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>8845</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2851</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4739</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>testRun1!$D$2:$D$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>2324168</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>135795200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>122993928</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>184166432</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>185627912</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>77925128</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1545282</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>106055048</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>61938450</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>118241442</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5281250</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2817938</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>101502752</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>176832818</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6090050</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>22151168</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>185782088</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4892192</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>165802050</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>12005000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>26208800</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>101930642</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>12700800</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>34461602</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>187675938</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>37048832</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>186438050</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>156468050</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>16256402</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>44916242</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-12FB-439A-952F-73AE7D9DECF6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1519,7 +1194,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>testRun2!$B$1</c:f>
+              <c:f>'testRun2 Without Duplicate'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1597,7 +1272,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>testRun2!$A$2:$A$31</c:f>
+              <c:f>'testRun2 Without Duplicate'!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -1696,7 +1371,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>testRun2!$B$2:$B$31</c:f>
+              <c:f>'testRun2 Without Duplicate'!$B$2:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -1805,7 +1480,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>testRun2!$C$1</c:f>
+              <c:f>'testRun2 Without Duplicate'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1883,7 +1558,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>testRun2!$A$2:$A$31</c:f>
+              <c:f>'testRun2 Without Duplicate'!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -1982,7 +1657,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>testRun2!$C$2:$C$31</c:f>
+              <c:f>'testRun2 Without Duplicate'!$C$2:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -2083,292 +1758,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-C066-4D47-874B-9B2E836AD221}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>testRun2!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>y</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:name>Theory comparision</c:name>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="power"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>testRun2!$A$2:$A$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>5698</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3301</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2486</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4332</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>516</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8939</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6932</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5020</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9736</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7913</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2175</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1273</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1372</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>682</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>9080</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5191</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4752</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3225</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2307</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4512</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1096</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7685</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3940</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1374</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3469</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4104</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2892</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2477</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>8933</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>testRun2!$D$2:$D$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>64934408</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>128032002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>21793202</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12360392</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>37532448</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>532512</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>159811442</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>96105248</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>50400800</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>189579392</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>125231138</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9461250</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3241058</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3764768</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>930248</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>164892800</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>53892962</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>45163008</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>20801250</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>10644498</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>40716288</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2402432</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>118118450</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>31047200</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3775752</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>24067922</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>33685632</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>16727328</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>12271058</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>159596978</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0580-4270-9280-7C6BF39714B8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2646,8 +2035,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.16749836758210104"/>
           <c:y val="8.0754368320782338E-2"/>
-          <c:w val="0.83250167485970328"/>
-          <c:h val="4.4164875190278112E-2"/>
+          <c:w val="0.71980917995006721"/>
+          <c:h val="4.2572178477690285E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2664,6 +2053,749 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>testRun1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Counter 1 (minDistance)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>testRun1!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7683</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>739</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7882</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9832</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1308</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7596</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1323</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5930</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6641</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4448</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4727</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3607</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2274</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2095</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9665</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3916</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7484</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8450</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6651</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5520</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9860</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4342</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3816</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3835</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3826</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>testRun1!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>336400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4048144</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59028489</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>546121</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>62125924</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96668224</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1710864</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57699216</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1750329</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35164900</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44102881</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19784704</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22344529</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13010449</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>51840000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5171076</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4389025</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>93412225</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15335056</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>56010256</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>71402500</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44235801</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30470400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>97219600</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>18852964</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14561856</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14707225</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14638276</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>76877824</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8AE4-A54D-B601-32BBA2B171EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>testRun1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Counter 2 (minDistance2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>testRun1!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7683</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>739</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7882</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9832</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1308</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7596</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1323</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5930</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6641</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4448</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4727</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3607</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2274</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2095</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9665</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3916</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7484</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8450</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6651</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5520</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9860</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4342</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3816</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3835</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3826</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>testRun1!$C$2:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>167910</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2023066</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47895</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29510403</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>272691</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31059021</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48329196</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>854778</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28845810</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>874503</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17579485</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22048120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9890128</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11169901</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6503421</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25916400</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2584401</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2193465</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>46701280</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7665570</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>28001386</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>35697025</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22114575</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15232440</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>48604870</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9424311</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7279020</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7351695</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7317225</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>38434528</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8AE4-A54D-B601-32BBA2B171EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="634713023"/>
+        <c:axId val="634820223"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="634713023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="634820223"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="634820223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="634713023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2796,6 +2928,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3313,6 +3485,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3896,6 +4584,47 @@
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25EF47A6-E2CB-5242-9EFC-78123ADE07B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4209,22 +4938,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A11E0B3-0CCD-4F3C-9D7D-368DDE3E33BB}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView zoomScale="76" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4234,12 +4962,8 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" ht="21">
+    </row>
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1078</v>
       </c>
@@ -4249,13 +4973,8 @@
       <c r="C2" s="3">
         <v>580503</v>
       </c>
-      <c r="D2" s="3">
-        <f>2*(A2*A2)</f>
-        <v>2324168</v>
-      </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" ht="21">
+    </row>
+    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>8240</v>
       </c>
@@ -4265,13 +4984,8 @@
       <c r="C3" s="3">
         <v>33944680</v>
       </c>
-      <c r="D3" s="3">
-        <f t="shared" ref="D3:D31" si="0">2*(A3*A3)</f>
-        <v>135795200</v>
-      </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" ht="21">
+    </row>
+    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>7842</v>
       </c>
@@ -4281,13 +4995,8 @@
       <c r="C4" s="3">
         <v>30744561</v>
       </c>
-      <c r="D4" s="3">
-        <f t="shared" si="0"/>
-        <v>122993928</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" ht="21">
+    </row>
+    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>9596</v>
       </c>
@@ -4297,13 +5006,8 @@
       <c r="C5" s="3">
         <v>46036810</v>
       </c>
-      <c r="D5" s="3">
-        <f t="shared" si="0"/>
-        <v>184166432</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" ht="21">
+    </row>
+    <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>9634</v>
       </c>
@@ -4313,13 +5017,8 @@
       <c r="C6" s="3">
         <v>46402161</v>
       </c>
-      <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>185627912</v>
-      </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" ht="21">
+    </row>
+    <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6242</v>
       </c>
@@ -4329,13 +5028,8 @@
       <c r="C7" s="3">
         <v>19478161</v>
       </c>
-      <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>77925128</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" ht="21">
+    </row>
+    <row r="8" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>879</v>
       </c>
@@ -4345,13 +5039,8 @@
       <c r="C8" s="3">
         <v>385881</v>
       </c>
-      <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>1545282</v>
-      </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" ht="21">
+    </row>
+    <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7282</v>
       </c>
@@ -4361,13 +5050,8 @@
       <c r="C9" s="3">
         <v>26510121</v>
       </c>
-      <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>106055048</v>
-      </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" ht="21">
+    </row>
+    <row r="10" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>5565</v>
       </c>
@@ -4377,13 +5061,8 @@
       <c r="C10" s="3">
         <v>15481830</v>
       </c>
-      <c r="D10" s="3">
-        <f t="shared" si="0"/>
-        <v>61938450</v>
-      </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" ht="21">
+    </row>
+    <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>7689</v>
       </c>
@@ -4393,13 +5072,8 @@
       <c r="C11" s="3">
         <v>29556516</v>
       </c>
-      <c r="D11" s="3">
-        <f t="shared" si="0"/>
-        <v>118241442</v>
-      </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" ht="21">
+    </row>
+    <row r="12" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>1625</v>
       </c>
@@ -4409,13 +5083,8 @@
       <c r="C12" s="3">
         <v>1319500</v>
       </c>
-      <c r="D12" s="3">
-        <f t="shared" si="0"/>
-        <v>5281250</v>
-      </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" ht="21">
+    </row>
+    <row r="13" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>1187</v>
       </c>
@@ -4425,13 +5094,8 @@
       <c r="C13" s="3">
         <v>703891</v>
       </c>
-      <c r="D13" s="3">
-        <f t="shared" si="0"/>
-        <v>2817938</v>
-      </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" ht="21">
+    </row>
+    <row r="14" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>7124</v>
       </c>
@@ -4441,13 +5105,8 @@
       <c r="C14" s="3">
         <v>25372126</v>
       </c>
-      <c r="D14" s="3">
-        <f t="shared" si="0"/>
-        <v>101502752</v>
-      </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" ht="21">
+    </row>
+    <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>9403</v>
       </c>
@@ -4457,13 +5116,8 @@
       <c r="C15" s="3">
         <v>44203503</v>
       </c>
-      <c r="D15" s="3">
-        <f t="shared" si="0"/>
-        <v>176832818</v>
-      </c>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" ht="21">
+    </row>
+    <row r="16" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>1745</v>
       </c>
@@ -4473,13 +5127,8 @@
       <c r="C16" s="3">
         <v>1521640</v>
       </c>
-      <c r="D16" s="3">
-        <f t="shared" si="0"/>
-        <v>6090050</v>
-      </c>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" ht="21">
+    </row>
+    <row r="17" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>3328</v>
       </c>
@@ -4489,13 +5138,8 @@
       <c r="C17" s="3">
         <v>5536128</v>
       </c>
-      <c r="D17" s="3">
-        <f t="shared" si="0"/>
-        <v>22151168</v>
-      </c>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" ht="21">
+    </row>
+    <row r="18" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>9638</v>
       </c>
@@ -4505,13 +5149,8 @@
       <c r="C18" s="3">
         <v>46440703</v>
       </c>
-      <c r="D18" s="3">
-        <f t="shared" si="0"/>
-        <v>185782088</v>
-      </c>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" ht="21">
+    </row>
+    <row r="19" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>1564</v>
       </c>
@@ -4521,13 +5160,8 @@
       <c r="C19" s="3">
         <v>1222266</v>
       </c>
-      <c r="D19" s="3">
-        <f t="shared" si="0"/>
-        <v>4892192</v>
-      </c>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" ht="21">
+    </row>
+    <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>9105</v>
       </c>
@@ -4537,13 +5171,8 @@
       <c r="C20" s="3">
         <v>41445960</v>
       </c>
-      <c r="D20" s="3">
-        <f t="shared" si="0"/>
-        <v>165802050</v>
-      </c>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" ht="21">
+    </row>
+    <row r="21" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>2450</v>
       </c>
@@ -4553,13 +5182,8 @@
       <c r="C21" s="3">
         <v>3000025</v>
       </c>
-      <c r="D21" s="3">
-        <f t="shared" si="0"/>
-        <v>12005000</v>
-      </c>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" ht="21">
+    </row>
+    <row r="22" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>3620</v>
       </c>
@@ -4569,13 +5193,8 @@
       <c r="C22" s="3">
         <v>6550390</v>
       </c>
-      <c r="D22" s="3">
-        <f t="shared" si="0"/>
-        <v>26208800</v>
-      </c>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5" ht="21">
+    </row>
+    <row r="23" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>7139</v>
       </c>
@@ -4585,13 +5204,8 @@
       <c r="C23" s="3">
         <v>25479091</v>
       </c>
-      <c r="D23" s="3">
-        <f t="shared" si="0"/>
-        <v>101930642</v>
-      </c>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" ht="21">
+    </row>
+    <row r="24" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>2520</v>
       </c>
@@ -4601,13 +5215,8 @@
       <c r="C24" s="3">
         <v>3173940</v>
       </c>
-      <c r="D24" s="3">
-        <f t="shared" si="0"/>
-        <v>12700800</v>
-      </c>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" ht="21">
+    </row>
+    <row r="25" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>4151</v>
       </c>
@@ -4617,13 +5226,8 @@
       <c r="C25" s="3">
         <v>8613325</v>
       </c>
-      <c r="D25" s="3">
-        <f t="shared" si="0"/>
-        <v>34461602</v>
-      </c>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" ht="21">
+    </row>
+    <row r="26" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>9687</v>
       </c>
@@ -4633,13 +5237,8 @@
       <c r="C26" s="3">
         <v>46914141</v>
       </c>
-      <c r="D26" s="3">
-        <f t="shared" si="0"/>
-        <v>187675938</v>
-      </c>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" ht="21">
+    </row>
+    <row r="27" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>4304</v>
       </c>
@@ -4649,13 +5248,8 @@
       <c r="C27" s="3">
         <v>9260056</v>
       </c>
-      <c r="D27" s="3">
-        <f t="shared" si="0"/>
-        <v>37048832</v>
-      </c>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:5" ht="21">
+    </row>
+    <row r="28" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>9655</v>
       </c>
@@ -4665,13 +5259,8 @@
       <c r="C28" s="3">
         <v>46604685</v>
       </c>
-      <c r="D28" s="3">
-        <f t="shared" si="0"/>
-        <v>186438050</v>
-      </c>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="1:5" ht="21">
+    </row>
+    <row r="29" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>8845</v>
       </c>
@@ -4681,13 +5270,8 @@
       <c r="C29" s="3">
         <v>39112590</v>
       </c>
-      <c r="D29" s="3">
-        <f t="shared" si="0"/>
-        <v>156468050</v>
-      </c>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:5" ht="21">
+    </row>
+    <row r="30" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>2851</v>
       </c>
@@ -4697,13 +5281,8 @@
       <c r="C30" s="3">
         <v>4062675</v>
       </c>
-      <c r="D30" s="3">
-        <f t="shared" si="0"/>
-        <v>16256402</v>
-      </c>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:5" ht="21">
+    </row>
+    <row r="31" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>4739</v>
       </c>
@@ -4713,37 +5292,30 @@
       <c r="C31" s="3">
         <v>11226691</v>
       </c>
-      <c r="D31" s="3">
-        <f t="shared" si="0"/>
-        <v>44916242</v>
-      </c>
-      <c r="E31" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F96B15E3-3B8B-2941-9C5F-8182C58E2A13}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.85546875" style="1"/>
+    <col min="1" max="1" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="29.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.25">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -4753,11 +5325,8 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="20.25">
+    </row>
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>5698</v>
       </c>
@@ -4767,12 +5336,8 @@
       <c r="C2" s="2">
         <v>16230753</v>
       </c>
-      <c r="D2" s="4">
-        <f>2*(A2*A2)</f>
-        <v>64934408</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="20.25">
+    </row>
+    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>8001</v>
       </c>
@@ -4782,12 +5347,8 @@
       <c r="C3" s="2">
         <v>32004000</v>
       </c>
-      <c r="D3" s="4">
-        <f t="shared" ref="D3:D31" si="0">2*(A3*A3)</f>
-        <v>128032002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="20.25">
+    </row>
+    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3301</v>
       </c>
@@ -4797,12 +5358,8 @@
       <c r="C4" s="2">
         <v>5446650</v>
       </c>
-      <c r="D4" s="4">
-        <f t="shared" si="0"/>
-        <v>21793202</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="20.25">
+    </row>
+    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2486</v>
       </c>
@@ -4812,12 +5369,8 @@
       <c r="C5" s="2">
         <v>3088855</v>
       </c>
-      <c r="D5" s="4">
-        <f t="shared" si="0"/>
-        <v>12360392</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="20.25">
+    </row>
+    <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4332</v>
       </c>
@@ -4827,12 +5380,8 @@
       <c r="C6" s="2">
         <v>9380946</v>
       </c>
-      <c r="D6" s="4">
-        <f t="shared" si="0"/>
-        <v>37532448</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="20.25">
+    </row>
+    <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>516</v>
       </c>
@@ -4842,12 +5391,8 @@
       <c r="C7" s="2">
         <v>132870</v>
       </c>
-      <c r="D7" s="4">
-        <f t="shared" si="0"/>
-        <v>532512</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="20.25">
+    </row>
+    <row r="8" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>8939</v>
       </c>
@@ -4857,12 +5402,8 @@
       <c r="C8" s="2">
         <v>39948391</v>
       </c>
-      <c r="D8" s="4">
-        <f t="shared" si="0"/>
-        <v>159811442</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="20.25">
+    </row>
+    <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6932</v>
       </c>
@@ -4872,12 +5413,8 @@
       <c r="C9" s="2">
         <v>24022846</v>
       </c>
-      <c r="D9" s="4">
-        <f t="shared" si="0"/>
-        <v>96105248</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="20.25">
+    </row>
+    <row r="10" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>5020</v>
       </c>
@@ -4887,12 +5424,8 @@
       <c r="C10" s="2">
         <v>12597690</v>
       </c>
-      <c r="D10" s="4">
-        <f t="shared" si="0"/>
-        <v>50400800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="20.25">
+    </row>
+    <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9736</v>
       </c>
@@ -4902,12 +5435,8 @@
       <c r="C11" s="2">
         <v>47389980</v>
       </c>
-      <c r="D11" s="4">
-        <f t="shared" si="0"/>
-        <v>189579392</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="20.25">
+    </row>
+    <row r="12" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>7913</v>
       </c>
@@ -4917,12 +5446,8 @@
       <c r="C12" s="2">
         <v>31303828</v>
       </c>
-      <c r="D12" s="4">
-        <f t="shared" si="0"/>
-        <v>125231138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="20.25">
+    </row>
+    <row r="13" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>2175</v>
       </c>
@@ -4932,12 +5457,8 @@
       <c r="C13" s="2">
         <v>2364225</v>
       </c>
-      <c r="D13" s="4">
-        <f t="shared" si="0"/>
-        <v>9461250</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="20.25">
+    </row>
+    <row r="14" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1273</v>
       </c>
@@ -4947,12 +5468,8 @@
       <c r="C14" s="2">
         <v>809628</v>
       </c>
-      <c r="D14" s="4">
-        <f t="shared" si="0"/>
-        <v>3241058</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="20.25">
+    </row>
+    <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1372</v>
       </c>
@@ -4962,12 +5479,8 @@
       <c r="C15" s="2">
         <v>940506</v>
       </c>
-      <c r="D15" s="4">
-        <f t="shared" si="0"/>
-        <v>3764768</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="20.25">
+    </row>
+    <row r="16" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>682</v>
       </c>
@@ -4977,12 +5490,8 @@
       <c r="C16" s="2">
         <v>232221</v>
       </c>
-      <c r="D16" s="4">
-        <f t="shared" si="0"/>
-        <v>930248</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="20.25">
+    </row>
+    <row r="17" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>9080</v>
       </c>
@@ -4992,12 +5501,8 @@
       <c r="C17" s="2">
         <v>41218660</v>
       </c>
-      <c r="D17" s="4">
-        <f t="shared" si="0"/>
-        <v>164892800</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="20.25">
+    </row>
+    <row r="18" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>5191</v>
       </c>
@@ -5007,12 +5512,8 @@
       <c r="C18" s="2">
         <v>13470645</v>
       </c>
-      <c r="D18" s="4">
-        <f t="shared" si="0"/>
-        <v>53892962</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="20.25">
+    </row>
+    <row r="19" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>4752</v>
       </c>
@@ -5022,12 +5523,8 @@
       <c r="C19" s="2">
         <v>11288376</v>
       </c>
-      <c r="D19" s="4">
-        <f t="shared" si="0"/>
-        <v>45163008</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="20.25">
+    </row>
+    <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>3225</v>
       </c>
@@ -5037,12 +5534,8 @@
       <c r="C20" s="2">
         <v>5198700</v>
       </c>
-      <c r="D20" s="4">
-        <f t="shared" si="0"/>
-        <v>20801250</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="20.25">
+    </row>
+    <row r="21" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>2307</v>
       </c>
@@ -5052,12 +5545,8 @@
       <c r="C21" s="2">
         <v>2659971</v>
       </c>
-      <c r="D21" s="4">
-        <f t="shared" si="0"/>
-        <v>10644498</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="20.25">
+    </row>
+    <row r="22" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>4512</v>
       </c>
@@ -5067,12 +5556,8 @@
       <c r="C22" s="2">
         <v>10176816</v>
       </c>
-      <c r="D22" s="4">
-        <f t="shared" si="0"/>
-        <v>40716288</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="20.25">
+    </row>
+    <row r="23" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>1096</v>
       </c>
@@ -5082,12 +5567,8 @@
       <c r="C23" s="2">
         <v>600060</v>
       </c>
-      <c r="D23" s="4">
-        <f t="shared" si="0"/>
-        <v>2402432</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="20.25">
+    </row>
+    <row r="24" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>7685</v>
       </c>
@@ -5097,12 +5578,8 @@
       <c r="C24" s="2">
         <v>29525770</v>
       </c>
-      <c r="D24" s="4">
-        <f t="shared" si="0"/>
-        <v>118118450</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="20.25">
+    </row>
+    <row r="25" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>3940</v>
       </c>
@@ -5112,12 +5589,8 @@
       <c r="C25" s="2">
         <v>7759830</v>
       </c>
-      <c r="D25" s="4">
-        <f t="shared" si="0"/>
-        <v>31047200</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="20.25">
+    </row>
+    <row r="26" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>1374</v>
       </c>
@@ -5127,12 +5600,8 @@
       <c r="C26" s="2">
         <v>943251</v>
       </c>
-      <c r="D26" s="4">
-        <f t="shared" si="0"/>
-        <v>3775752</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="20.25">
+    </row>
+    <row r="27" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>3469</v>
       </c>
@@ -5142,12 +5611,8 @@
       <c r="C27" s="2">
         <v>6015246</v>
       </c>
-      <c r="D27" s="4">
-        <f t="shared" si="0"/>
-        <v>24067922</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="20.25">
+    </row>
+    <row r="28" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>4104</v>
       </c>
@@ -5157,12 +5622,8 @@
       <c r="C28" s="2">
         <v>8419356</v>
       </c>
-      <c r="D28" s="4">
-        <f t="shared" si="0"/>
-        <v>33685632</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="21">
+    </row>
+    <row r="29" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>2892</v>
       </c>
@@ -5172,12 +5633,8 @@
       <c r="C29" s="2">
         <v>4180386</v>
       </c>
-      <c r="D29" s="5">
-        <f t="shared" si="0"/>
-        <v>16727328</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="21">
+    </row>
+    <row r="30" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>2477</v>
       </c>
@@ -5187,12 +5644,8 @@
       <c r="C30" s="2">
         <v>3066526</v>
       </c>
-      <c r="D30" s="5">
-        <f t="shared" si="0"/>
-        <v>12271058</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="21">
+    </row>
+    <row r="31" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>8933</v>
       </c>
@@ -5202,16 +5655,367 @@
       <c r="C31" s="2">
         <v>39894778</v>
       </c>
-      <c r="D31" s="5">
-        <f t="shared" si="0"/>
-        <v>159596978</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="21">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E2E93D-C293-0D44-A7D2-46CC9FC54F82}">
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>580</v>
+      </c>
+      <c r="B2">
+        <v>336400</v>
+      </c>
+      <c r="C2">
+        <v>167910</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2012</v>
+      </c>
+      <c r="B3">
+        <v>4048144</v>
+      </c>
+      <c r="C3">
+        <v>2023066</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>310</v>
+      </c>
+      <c r="B4">
+        <v>96100</v>
+      </c>
+      <c r="C4">
+        <v>47895</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>7683</v>
+      </c>
+      <c r="B5">
+        <v>59028489</v>
+      </c>
+      <c r="C5">
+        <v>29510403</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>739</v>
+      </c>
+      <c r="B6">
+        <v>546121</v>
+      </c>
+      <c r="C6">
+        <v>272691</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>7882</v>
+      </c>
+      <c r="B7">
+        <v>62125924</v>
+      </c>
+      <c r="C7">
+        <v>31059021</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>9832</v>
+      </c>
+      <c r="B8">
+        <v>96668224</v>
+      </c>
+      <c r="C8">
+        <v>48329196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1308</v>
+      </c>
+      <c r="B9">
+        <v>1710864</v>
+      </c>
+      <c r="C9">
+        <v>854778</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7596</v>
+      </c>
+      <c r="B10">
+        <v>57699216</v>
+      </c>
+      <c r="C10">
+        <v>28845810</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1323</v>
+      </c>
+      <c r="B11">
+        <v>1750329</v>
+      </c>
+      <c r="C11">
+        <v>874503</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>5930</v>
+      </c>
+      <c r="B12">
+        <v>35164900</v>
+      </c>
+      <c r="C12">
+        <v>17579485</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>6641</v>
+      </c>
+      <c r="B13">
+        <v>44102881</v>
+      </c>
+      <c r="C13">
+        <v>22048120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>4448</v>
+      </c>
+      <c r="B14">
+        <v>19784704</v>
+      </c>
+      <c r="C14">
+        <v>9890128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>4727</v>
+      </c>
+      <c r="B15">
+        <v>22344529</v>
+      </c>
+      <c r="C15">
+        <v>11169901</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>3607</v>
+      </c>
+      <c r="B16">
+        <v>13010449</v>
+      </c>
+      <c r="C16">
+        <v>6503421</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>7200</v>
+      </c>
+      <c r="B17">
+        <v>51840000</v>
+      </c>
+      <c r="C17">
+        <v>25916400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2274</v>
+      </c>
+      <c r="B18">
+        <v>5171076</v>
+      </c>
+      <c r="C18">
+        <v>2584401</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2095</v>
+      </c>
+      <c r="B19">
+        <v>4389025</v>
+      </c>
+      <c r="C19">
+        <v>2193465</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>9665</v>
+      </c>
+      <c r="B20">
+        <v>93412225</v>
+      </c>
+      <c r="C20">
+        <v>46701280</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>3916</v>
+      </c>
+      <c r="B21">
+        <v>15335056</v>
+      </c>
+      <c r="C21">
+        <v>7665570</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>7484</v>
+      </c>
+      <c r="B22">
+        <v>56010256</v>
+      </c>
+      <c r="C22">
+        <v>28001386</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>8450</v>
+      </c>
+      <c r="B23">
+        <v>71402500</v>
+      </c>
+      <c r="C23">
+        <v>35697025</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>6651</v>
+      </c>
+      <c r="B24">
+        <v>44235801</v>
+      </c>
+      <c r="C24">
+        <v>22114575</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>5520</v>
+      </c>
+      <c r="B25">
+        <v>30470400</v>
+      </c>
+      <c r="C25">
+        <v>15232440</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>9860</v>
+      </c>
+      <c r="B26">
+        <v>97219600</v>
+      </c>
+      <c r="C26">
+        <v>48604870</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>4342</v>
+      </c>
+      <c r="B27">
+        <v>18852964</v>
+      </c>
+      <c r="C27">
+        <v>9424311</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>3816</v>
+      </c>
+      <c r="B28">
+        <v>14561856</v>
+      </c>
+      <c r="C28">
+        <v>7279020</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>3835</v>
+      </c>
+      <c r="B29">
+        <v>14707225</v>
+      </c>
+      <c r="C29">
+        <v>7351695</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>3826</v>
+      </c>
+      <c r="B30">
+        <v>14638276</v>
+      </c>
+      <c r="C30">
+        <v>7317225</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>8768</v>
+      </c>
+      <c r="B31">
+        <v>76877824</v>
+      </c>
+      <c r="C31">
+        <v>38434528</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testresults1.xlsx
+++ b/testresults1.xlsx
@@ -5,18 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaushallimbasiya/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaushallimbasiya/Documents/GitHub/CAB301-Assignment2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B68C32D-9AF1-5F40-A961-2C64DB6326F0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5ADF96-3EC9-6740-8974-E7431AF41CBC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16700" activeTab="1" xr2:uid="{081349F4-0C2E-45C9-AFE0-59D10EF7212F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16680" activeTab="3" xr2:uid="{081349F4-0C2E-45C9-AFE0-59D10EF7212F}"/>
   </bookViews>
   <sheets>
     <sheet name="testRun1 Without Duplicate" sheetId="1" r:id="rId1"/>
     <sheet name="testRun2 Without Duplicate" sheetId="3" r:id="rId2"/>
     <sheet name="testRun1" sheetId="4" r:id="rId3"/>
+    <sheet name="testRun2" sheetId="5" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">testRun2!$A$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">testRun2!$A$2:$A$31</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">testRun2!$B$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">testRun2!$B$2:$B$31</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">testRun2!$C$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">testRun2!$C$2:$C$31</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
   <si>
     <t xml:space="preserve">ArraySize </t>
   </si>
@@ -2848,6 +2857,749 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>testRun2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Counter 1 (minDistance)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>testRun2!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>9820</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12277</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7453</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13329</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4758</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1838</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5780</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3844</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3278</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6264</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14459</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14547</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7867</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6243</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13323</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7932</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13332</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7608</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14146</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12385</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1060</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10013</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11509</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10404</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7852</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14698</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3688</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>testRun2!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>96432400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150724729</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55547209</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>177662241</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>331776</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22638564</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3378244</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33408400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14776336</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10745284</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39237696</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>209062681</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>211615209</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>61889689</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38975049</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>177502329</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>121044004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>62916624</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>177742224</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>57881664</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200109316</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>153388225</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1123600</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>81054009</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>100260169</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>132457081</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>108243216</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>61653904</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>216031204</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>13601344</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-52C7-A14E-B103-D677138ACE68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>testRun2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Counter 2 (minDistance2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>testRun2!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>9820</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12277</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7453</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13329</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4758</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1838</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5780</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3844</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3278</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6264</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14459</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14547</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7867</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6243</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13323</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7932</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13332</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7608</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14146</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12385</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1060</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10013</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11509</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10404</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7852</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14698</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3688</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>testRun2!$C$2:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>48211290</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75356226</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27769878</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>88824456</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>165600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11316903</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1688203</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16701310</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7386246</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5371003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19615716</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>104524111</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>105800331</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30940911</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19484403</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>88744503</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>60516501</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>31454346</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>88864446</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>28937028</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100047585</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>76687920</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>561270</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>40522503</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>50125078</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>66222786</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>54116406</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>30823026</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>108008253</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6798828</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-52C7-A14E-B103-D677138ACE68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2030091215"/>
+        <c:axId val="2030092895"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2030091215"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2030092895"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2030092895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2030091215"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2968,6 +3720,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4001,6 +4793,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4621,6 +5929,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25EF47A6-E2CB-5242-9EFC-78123ADE07B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D7B43B9-4F4D-7D46-9EF3-B662A8F2D3D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4940,8 +6289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A11E0B3-0CCD-4F3C-9D7D-368DDE3E33BB}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView zoomScale="76" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5303,7 +6652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F96B15E3-3B8B-2941-9C5F-8182C58E2A13}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -5667,7 +7016,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6021,4 +7370,366 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3575E68-0E68-D54A-A2BD-D01A64D54C74}">
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>9820</v>
+      </c>
+      <c r="B2">
+        <v>96432400</v>
+      </c>
+      <c r="C2">
+        <v>48211290</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>12277</v>
+      </c>
+      <c r="B3">
+        <v>150724729</v>
+      </c>
+      <c r="C3">
+        <v>75356226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>7453</v>
+      </c>
+      <c r="B4">
+        <v>55547209</v>
+      </c>
+      <c r="C4">
+        <v>27769878</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>13329</v>
+      </c>
+      <c r="B5">
+        <v>177662241</v>
+      </c>
+      <c r="C5">
+        <v>88824456</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>576</v>
+      </c>
+      <c r="B6">
+        <v>331776</v>
+      </c>
+      <c r="C6">
+        <v>165600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4758</v>
+      </c>
+      <c r="B7">
+        <v>22638564</v>
+      </c>
+      <c r="C7">
+        <v>11316903</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1838</v>
+      </c>
+      <c r="B8">
+        <v>3378244</v>
+      </c>
+      <c r="C8">
+        <v>1688203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>5780</v>
+      </c>
+      <c r="B9">
+        <v>33408400</v>
+      </c>
+      <c r="C9">
+        <v>16701310</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>3844</v>
+      </c>
+      <c r="B10">
+        <v>14776336</v>
+      </c>
+      <c r="C10">
+        <v>7386246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>3278</v>
+      </c>
+      <c r="B11">
+        <v>10745284</v>
+      </c>
+      <c r="C11">
+        <v>5371003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>6264</v>
+      </c>
+      <c r="B12">
+        <v>39237696</v>
+      </c>
+      <c r="C12">
+        <v>19615716</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>14459</v>
+      </c>
+      <c r="B13">
+        <v>209062681</v>
+      </c>
+      <c r="C13">
+        <v>104524111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>14547</v>
+      </c>
+      <c r="B14">
+        <v>211615209</v>
+      </c>
+      <c r="C14">
+        <v>105800331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>7867</v>
+      </c>
+      <c r="B15">
+        <v>61889689</v>
+      </c>
+      <c r="C15">
+        <v>30940911</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>6243</v>
+      </c>
+      <c r="B16">
+        <v>38975049</v>
+      </c>
+      <c r="C16">
+        <v>19484403</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>13323</v>
+      </c>
+      <c r="B17">
+        <v>177502329</v>
+      </c>
+      <c r="C17">
+        <v>88744503</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>11002</v>
+      </c>
+      <c r="B18">
+        <v>121044004</v>
+      </c>
+      <c r="C18">
+        <v>60516501</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>7932</v>
+      </c>
+      <c r="B19">
+        <v>62916624</v>
+      </c>
+      <c r="C19">
+        <v>31454346</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>13332</v>
+      </c>
+      <c r="B20">
+        <v>177742224</v>
+      </c>
+      <c r="C20">
+        <v>88864446</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>7608</v>
+      </c>
+      <c r="B21">
+        <v>57881664</v>
+      </c>
+      <c r="C21">
+        <v>28937028</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>14146</v>
+      </c>
+      <c r="B22">
+        <v>200109316</v>
+      </c>
+      <c r="C22">
+        <v>100047585</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>12385</v>
+      </c>
+      <c r="B23">
+        <v>153388225</v>
+      </c>
+      <c r="C23">
+        <v>76687920</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1060</v>
+      </c>
+      <c r="B24">
+        <v>1123600</v>
+      </c>
+      <c r="C24">
+        <v>561270</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>9003</v>
+      </c>
+      <c r="B25">
+        <v>81054009</v>
+      </c>
+      <c r="C25">
+        <v>40522503</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>10013</v>
+      </c>
+      <c r="B26">
+        <v>100260169</v>
+      </c>
+      <c r="C26">
+        <v>50125078</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>11509</v>
+      </c>
+      <c r="B27">
+        <v>132457081</v>
+      </c>
+      <c r="C27">
+        <v>66222786</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>10404</v>
+      </c>
+      <c r="B28">
+        <v>108243216</v>
+      </c>
+      <c r="C28">
+        <v>54116406</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>7852</v>
+      </c>
+      <c r="B29">
+        <v>61653904</v>
+      </c>
+      <c r="C29">
+        <v>30823026</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>14698</v>
+      </c>
+      <c r="B30">
+        <v>216031204</v>
+      </c>
+      <c r="C30">
+        <v>108008253</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>3688</v>
+      </c>
+      <c r="B31">
+        <v>13601344</v>
+      </c>
+      <c r="C31">
+        <v>6798828</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/testresults1.xlsx
+++ b/testresults1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaushallimbasiya/Documents/GitHub/CAB301-Assignment2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaushallimbasiya/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5ADF96-3EC9-6740-8974-E7431AF41CBC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A63424-F573-8D45-8D7A-4DE582775D5F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16680" activeTab="3" xr2:uid="{081349F4-0C2E-45C9-AFE0-59D10EF7212F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16680" xr2:uid="{081349F4-0C2E-45C9-AFE0-59D10EF7212F}"/>
   </bookViews>
   <sheets>
     <sheet name="testRun1 Without Duplicate" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,6 @@
     <sheet name="testRun1" sheetId="4" r:id="rId3"/>
     <sheet name="testRun2" sheetId="5" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">testRun2!$A$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">testRun2!$A$2:$A$31</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">testRun2!$B$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">testRun2!$B$2:$B$31</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">testRun2!$C$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">testRun2!$C$2:$C$31</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -153,7 +145,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -166,14 +158,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-AU"/>
+              <a:rPr lang="en-AU" sz="1800"/>
               <a:t>Array Size vs Counters for minDistance</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-AU" baseline="0"/>
+              <a:rPr lang="en-AU" sz="1800" baseline="0"/>
               <a:t> and minDistance2</a:t>
             </a:r>
-            <a:endParaRPr lang="en-AU"/>
+            <a:endParaRPr lang="en-AU" sz="1800"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -190,7 +182,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -249,7 +241,7 @@
             </c:spPr>
           </c:marker>
           <c:trendline>
-            <c:name>Counter 1(minDistance)</c:name>
+            <c:name>Counter 1 (minDistance)</c:name>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
@@ -535,7 +527,7 @@
             </c:spPr>
           </c:marker>
           <c:trendline>
-            <c:name>Counter 2(minDistance2)</c:name>
+            <c:name>Counter 2 (minDistance2)</c:name>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
@@ -893,7 +885,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -940,7 +932,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -953,14 +945,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-AU" sz="1600"/>
+                  <a:rPr lang="en-AU" sz="1800"/>
                   <a:t>Number</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-AU" sz="1600" baseline="0"/>
+                  <a:rPr lang="en-AU" sz="1800" baseline="0"/>
                   <a:t> of Times Basic Operation is Performed</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-AU" sz="1600"/>
+                <a:endParaRPr lang="en-AU" sz="1800"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -968,8 +960,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="7.4713980029894418E-3"/>
-              <c:y val="0.16116302931946971"/>
+              <c:x val="7.4713882179994681E-3"/>
+              <c:y val="0.16644969506177085"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -985,7 +977,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1023,7 +1015,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1052,6 +1044,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.0247713933744858E-2"/>
+          <c:y val="7.5927485956540725E-2"/>
+          <c:w val="0.89999996511600322"/>
+          <c:h val="5.4228128851866259E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1139,7 +1141,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1152,14 +1154,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1800"/>
               <a:t>Array Size vs</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" sz="1800" baseline="0"/>
               <a:t> Counters for minDistance and minDistance2</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" sz="1800"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1176,7 +1178,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1809,7 +1811,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1822,7 +1824,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:rPr lang="en-US" sz="1800"/>
                   <a:t>Array Size</a:t>
                 </a:r>
               </a:p>
@@ -1841,7 +1843,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1879,7 +1881,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1926,7 +1928,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1939,14 +1941,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:rPr lang="en-US" sz="1800"/>
                   <a:t>Number of Times Basic Operation</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:rPr lang="en-US" sz="1800" baseline="0"/>
                   <a:t> is Performed</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="1400"/>
+                <a:endParaRPr lang="en-US" sz="1800"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1954,8 +1956,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.4083733435759554E-2"/>
-              <c:y val="0.1954409203522457"/>
+              <c:x val="1.4083767787123046E-2"/>
+              <c:y val="0.16669183686734809"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1971,7 +1973,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2009,7 +2011,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2061,7 +2063,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2129,6 +2131,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Array Size vs Counters for minDistance and minDistance2</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2200,6 +2232,51 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:name>Counter 1 (minDistance)</c:name>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>testRun1!$A$2:$A$31</c:f>
@@ -2441,6 +2518,57 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:name>Counter 2 (minDistance2)</c:name>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.5592184151368E-3"/>
+                  <c:y val="-1.195715710208713E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>testRun1!$A$2:$A$31</c:f>
@@ -2678,6 +2806,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>Array Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2700,7 +2883,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2740,6 +2923,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Number of Times Basic Operation is Performed</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2762,7 +3005,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2790,7 +3033,17 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16790808165328108"/>
+          <c:y val="8.4859775533880688E-2"/>
+          <c:w val="0.72946532441278633"/>
+          <c:h val="4.6334660314476701E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2804,7 +3057,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2872,6 +3125,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Array Size vs Counters for minDistance and minDistance2</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2943,6 +3226,51 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:name>Counter 1 (minDistance)</c:name>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>testRun2!$A$2:$A$31</c:f>
@@ -2950,94 +3278,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>9820</c:v>
+                  <c:v>6680</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12277</c:v>
+                  <c:v>9019</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7453</c:v>
+                  <c:v>7292</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13329</c:v>
+                  <c:v>3125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>576</c:v>
+                  <c:v>5655</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4758</c:v>
+                  <c:v>8666</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1838</c:v>
+                  <c:v>8045</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5780</c:v>
+                  <c:v>5862</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3844</c:v>
+                  <c:v>2499</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3278</c:v>
+                  <c:v>8046</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6264</c:v>
+                  <c:v>8334</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14459</c:v>
+                  <c:v>4945</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14547</c:v>
+                  <c:v>911</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7867</c:v>
+                  <c:v>2586</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6243</c:v>
+                  <c:v>8269</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13323</c:v>
+                  <c:v>6446</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11002</c:v>
+                  <c:v>5975</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7932</c:v>
+                  <c:v>5450</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>13332</c:v>
+                  <c:v>5849</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7608</c:v>
+                  <c:v>5972</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>14146</c:v>
+                  <c:v>5847</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>12385</c:v>
+                  <c:v>8989</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1060</c:v>
+                  <c:v>2113</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9003</c:v>
+                  <c:v>1686</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>10013</c:v>
+                  <c:v>8063</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>11509</c:v>
+                  <c:v>3975</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>10404</c:v>
+                  <c:v>7171</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7852</c:v>
+                  <c:v>7808</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>14698</c:v>
+                  <c:v>6990</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3688</c:v>
+                  <c:v>4757</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3049,94 +3377,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>96432400</c:v>
+                  <c:v>44622400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>150724729</c:v>
+                  <c:v>81342361</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55547209</c:v>
+                  <c:v>53173264</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>177662241</c:v>
+                  <c:v>9765625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>331776</c:v>
+                  <c:v>31979025</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22638564</c:v>
+                  <c:v>75099556</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3378244</c:v>
+                  <c:v>64722025</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33408400</c:v>
+                  <c:v>34363044</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14776336</c:v>
+                  <c:v>6245001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10745284</c:v>
+                  <c:v>64738116</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>39237696</c:v>
+                  <c:v>69455556</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>209062681</c:v>
+                  <c:v>24453025</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>211615209</c:v>
+                  <c:v>829921</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>61889689</c:v>
+                  <c:v>6687396</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>38975049</c:v>
+                  <c:v>68376361</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>177502329</c:v>
+                  <c:v>41550916</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>121044004</c:v>
+                  <c:v>35700625</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>62916624</c:v>
+                  <c:v>29702500</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>177742224</c:v>
+                  <c:v>34210801</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>57881664</c:v>
+                  <c:v>35664784</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>200109316</c:v>
+                  <c:v>34187409</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>153388225</c:v>
+                  <c:v>80802121</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1123600</c:v>
+                  <c:v>4464769</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>81054009</c:v>
+                  <c:v>2842596</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>100260169</c:v>
+                  <c:v>65011969</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>132457081</c:v>
+                  <c:v>15800625</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>108243216</c:v>
+                  <c:v>51423241</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>61653904</c:v>
+                  <c:v>60964864</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>216031204</c:v>
+                  <c:v>48860100</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>13601344</c:v>
+                  <c:v>22629049</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3184,6 +3512,57 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:name>Counter 2 (minDistance2)</c:name>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.1851728683778289E-3"/>
+                  <c:y val="-2.2169149343959371E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>testRun2!$A$2:$A$31</c:f>
@@ -3191,94 +3570,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>9820</c:v>
+                  <c:v>6680</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12277</c:v>
+                  <c:v>9019</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7453</c:v>
+                  <c:v>7292</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13329</c:v>
+                  <c:v>3125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>576</c:v>
+                  <c:v>5655</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4758</c:v>
+                  <c:v>8666</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1838</c:v>
+                  <c:v>8045</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5780</c:v>
+                  <c:v>5862</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3844</c:v>
+                  <c:v>2499</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3278</c:v>
+                  <c:v>8046</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6264</c:v>
+                  <c:v>8334</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14459</c:v>
+                  <c:v>4945</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14547</c:v>
+                  <c:v>911</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7867</c:v>
+                  <c:v>2586</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6243</c:v>
+                  <c:v>8269</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13323</c:v>
+                  <c:v>6446</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11002</c:v>
+                  <c:v>5975</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7932</c:v>
+                  <c:v>5450</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>13332</c:v>
+                  <c:v>5849</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7608</c:v>
+                  <c:v>5972</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>14146</c:v>
+                  <c:v>5847</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>12385</c:v>
+                  <c:v>8989</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1060</c:v>
+                  <c:v>2113</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9003</c:v>
+                  <c:v>1686</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>10013</c:v>
+                  <c:v>8063</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>11509</c:v>
+                  <c:v>3975</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>10404</c:v>
+                  <c:v>7171</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7852</c:v>
+                  <c:v>7808</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>14698</c:v>
+                  <c:v>6990</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3688</c:v>
+                  <c:v>4757</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3290,94 +3669,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>48211290</c:v>
+                  <c:v>22307860</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75356226</c:v>
+                  <c:v>40666671</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27769878</c:v>
+                  <c:v>26582986</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>88824456</c:v>
+                  <c:v>4881250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>165600</c:v>
+                  <c:v>15986685</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11316903</c:v>
+                  <c:v>37545445</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1688203</c:v>
+                  <c:v>32356990</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16701310</c:v>
+                  <c:v>17178591</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7386246</c:v>
+                  <c:v>3121251</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5371003</c:v>
+                  <c:v>32365035</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19615716</c:v>
+                  <c:v>34723611</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>104524111</c:v>
+                  <c:v>12224040</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>105800331</c:v>
+                  <c:v>414505</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30940911</c:v>
+                  <c:v>3342405</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19484403</c:v>
+                  <c:v>34184046</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>88744503</c:v>
+                  <c:v>20772235</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>60516501</c:v>
+                  <c:v>17847325</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>31454346</c:v>
+                  <c:v>14848525</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>88864446</c:v>
+                  <c:v>17102476</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>28937028</c:v>
+                  <c:v>17829406</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>100047585</c:v>
+                  <c:v>17090781</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>76687920</c:v>
+                  <c:v>40396566</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>561270</c:v>
+                  <c:v>2231328</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>40522503</c:v>
+                  <c:v>1420455</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>50125078</c:v>
+                  <c:v>32501953</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>66222786</c:v>
+                  <c:v>7898325</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>54116406</c:v>
+                  <c:v>25708035</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>30823026</c:v>
+                  <c:v>30478528</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>108008253</c:v>
+                  <c:v>24426555</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6798828</c:v>
+                  <c:v>11312146</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3421,6 +3800,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>Array Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3443,7 +3877,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3483,6 +3917,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Number of Times Basic Operation is Performed</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3505,7 +3999,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3533,7 +4027,17 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12438704017583635"/>
+          <c:y val="7.272974156978558E-2"/>
+          <c:w val="0.78907022904493884"/>
+          <c:h val="4.6334660314476701E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3547,7 +4051,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -5834,10 +6338,10 @@
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>494570</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>62102</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5848,7 +6352,9 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5875,10 +6381,10 @@
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>198459</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>221912</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5918,10 +6424,10 @@
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>215392</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>160528</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5959,10 +6465,10 @@
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>583692</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>8128</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6289,8 +6795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A11E0B3-0CCD-4F3C-9D7D-368DDE3E33BB}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6652,8 +7158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F96B15E3-3B8B-2941-9C5F-8182C58E2A13}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7015,8 +7521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E2E93D-C293-0D44-A7D2-46CC9FC54F82}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="D6" workbookViewId="0">
+      <selection activeCell="C37" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7376,8 +7882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3575E68-0E68-D54A-A2BD-D01A64D54C74}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7400,332 +7906,332 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>9820</v>
+        <v>6680</v>
       </c>
       <c r="B2">
-        <v>96432400</v>
+        <v>44622400</v>
       </c>
       <c r="C2">
-        <v>48211290</v>
+        <v>22307860</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>12277</v>
+        <v>9019</v>
       </c>
       <c r="B3">
-        <v>150724729</v>
+        <v>81342361</v>
       </c>
       <c r="C3">
-        <v>75356226</v>
+        <v>40666671</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>7453</v>
+        <v>7292</v>
       </c>
       <c r="B4">
-        <v>55547209</v>
+        <v>53173264</v>
       </c>
       <c r="C4">
-        <v>27769878</v>
+        <v>26582986</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>13329</v>
+        <v>3125</v>
       </c>
       <c r="B5">
-        <v>177662241</v>
+        <v>9765625</v>
       </c>
       <c r="C5">
-        <v>88824456</v>
+        <v>4881250</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>576</v>
+        <v>5655</v>
       </c>
       <c r="B6">
-        <v>331776</v>
+        <v>31979025</v>
       </c>
       <c r="C6">
-        <v>165600</v>
+        <v>15986685</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>4758</v>
+        <v>8666</v>
       </c>
       <c r="B7">
-        <v>22638564</v>
+        <v>75099556</v>
       </c>
       <c r="C7">
-        <v>11316903</v>
+        <v>37545445</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>1838</v>
+        <v>8045</v>
       </c>
       <c r="B8">
-        <v>3378244</v>
+        <v>64722025</v>
       </c>
       <c r="C8">
-        <v>1688203</v>
+        <v>32356990</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>5780</v>
+        <v>5862</v>
       </c>
       <c r="B9">
-        <v>33408400</v>
+        <v>34363044</v>
       </c>
       <c r="C9">
-        <v>16701310</v>
+        <v>17178591</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>3844</v>
+        <v>2499</v>
       </c>
       <c r="B10">
-        <v>14776336</v>
+        <v>6245001</v>
       </c>
       <c r="C10">
-        <v>7386246</v>
+        <v>3121251</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>3278</v>
+        <v>8046</v>
       </c>
       <c r="B11">
-        <v>10745284</v>
+        <v>64738116</v>
       </c>
       <c r="C11">
-        <v>5371003</v>
+        <v>32365035</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>6264</v>
+        <v>8334</v>
       </c>
       <c r="B12">
-        <v>39237696</v>
+        <v>69455556</v>
       </c>
       <c r="C12">
-        <v>19615716</v>
+        <v>34723611</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>14459</v>
+        <v>4945</v>
       </c>
       <c r="B13">
-        <v>209062681</v>
+        <v>24453025</v>
       </c>
       <c r="C13">
-        <v>104524111</v>
+        <v>12224040</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>14547</v>
+        <v>911</v>
       </c>
       <c r="B14">
-        <v>211615209</v>
+        <v>829921</v>
       </c>
       <c r="C14">
-        <v>105800331</v>
+        <v>414505</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>7867</v>
+        <v>2586</v>
       </c>
       <c r="B15">
-        <v>61889689</v>
+        <v>6687396</v>
       </c>
       <c r="C15">
-        <v>30940911</v>
+        <v>3342405</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>6243</v>
+        <v>8269</v>
       </c>
       <c r="B16">
-        <v>38975049</v>
+        <v>68376361</v>
       </c>
       <c r="C16">
-        <v>19484403</v>
+        <v>34184046</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>13323</v>
+        <v>6446</v>
       </c>
       <c r="B17">
-        <v>177502329</v>
+        <v>41550916</v>
       </c>
       <c r="C17">
-        <v>88744503</v>
+        <v>20772235</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>11002</v>
+        <v>5975</v>
       </c>
       <c r="B18">
-        <v>121044004</v>
+        <v>35700625</v>
       </c>
       <c r="C18">
-        <v>60516501</v>
+        <v>17847325</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>7932</v>
+        <v>5450</v>
       </c>
       <c r="B19">
-        <v>62916624</v>
+        <v>29702500</v>
       </c>
       <c r="C19">
-        <v>31454346</v>
+        <v>14848525</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>13332</v>
+        <v>5849</v>
       </c>
       <c r="B20">
-        <v>177742224</v>
+        <v>34210801</v>
       </c>
       <c r="C20">
-        <v>88864446</v>
+        <v>17102476</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>7608</v>
+        <v>5972</v>
       </c>
       <c r="B21">
-        <v>57881664</v>
+        <v>35664784</v>
       </c>
       <c r="C21">
-        <v>28937028</v>
+        <v>17829406</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>14146</v>
+        <v>5847</v>
       </c>
       <c r="B22">
-        <v>200109316</v>
+        <v>34187409</v>
       </c>
       <c r="C22">
-        <v>100047585</v>
+        <v>17090781</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>12385</v>
+        <v>8989</v>
       </c>
       <c r="B23">
-        <v>153388225</v>
+        <v>80802121</v>
       </c>
       <c r="C23">
-        <v>76687920</v>
+        <v>40396566</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>1060</v>
+        <v>2113</v>
       </c>
       <c r="B24">
-        <v>1123600</v>
+        <v>4464769</v>
       </c>
       <c r="C24">
-        <v>561270</v>
+        <v>2231328</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>9003</v>
+        <v>1686</v>
       </c>
       <c r="B25">
-        <v>81054009</v>
+        <v>2842596</v>
       </c>
       <c r="C25">
-        <v>40522503</v>
+        <v>1420455</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>10013</v>
+        <v>8063</v>
       </c>
       <c r="B26">
-        <v>100260169</v>
+        <v>65011969</v>
       </c>
       <c r="C26">
-        <v>50125078</v>
+        <v>32501953</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>11509</v>
+        <v>3975</v>
       </c>
       <c r="B27">
-        <v>132457081</v>
+        <v>15800625</v>
       </c>
       <c r="C27">
-        <v>66222786</v>
+        <v>7898325</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>10404</v>
+        <v>7171</v>
       </c>
       <c r="B28">
-        <v>108243216</v>
+        <v>51423241</v>
       </c>
       <c r="C28">
-        <v>54116406</v>
+        <v>25708035</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>7852</v>
+        <v>7808</v>
       </c>
       <c r="B29">
-        <v>61653904</v>
+        <v>60964864</v>
       </c>
       <c r="C29">
-        <v>30823026</v>
+        <v>30478528</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>14698</v>
+        <v>6990</v>
       </c>
       <c r="B30">
-        <v>216031204</v>
+        <v>48860100</v>
       </c>
       <c r="C30">
-        <v>108008253</v>
+        <v>24426555</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>3688</v>
+        <v>4757</v>
       </c>
       <c r="B31">
-        <v>13601344</v>
+        <v>22629049</v>
       </c>
       <c r="C31">
-        <v>6798828</v>
+        <v>11312146</v>
       </c>
     </row>
   </sheetData>

--- a/testresults1.xlsx
+++ b/testresults1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaushallimbasiya/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A63424-F573-8D45-8D7A-4DE582775D5F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFE637D-04C4-D945-BD3F-96D35607754C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16680" xr2:uid="{081349F4-0C2E-45C9-AFE0-59D10EF7212F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="6">
   <si>
     <t xml:space="preserve">ArraySize </t>
   </si>
@@ -47,12 +47,18 @@
   <si>
     <t>Array Size</t>
   </si>
+  <si>
+    <t>Predictive Efficiency (minDistance)</t>
+  </si>
+  <si>
+    <t>Predictive Efficiency (minDistance2)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +85,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -101,11 +114,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1048,10 +1062,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.0247713933744858E-2"/>
-          <c:y val="7.5927485956540725E-2"/>
-          <c:w val="0.89999996511600322"/>
-          <c:h val="5.4228128851866259E-2"/>
+          <c:x val="9.8306259078396407E-2"/>
+          <c:y val="5.5591566102233363E-2"/>
+          <c:w val="0.87506502543503895"/>
+          <c:h val="0.13287123119560923"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1121,6 +1135,1022 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU" sz="1800"/>
+              <a:t>Array Size vs Counters for minDistance</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" sz="1800" baseline="0"/>
+              <a:t> and minDistance2 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>(Predictive Theoritical Efficiency)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU" sz="1800"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.8196695289707536E-2"/>
+          <c:y val="0.15831318077345857"/>
+          <c:w val="0.87690149115268667"/>
+          <c:h val="0.7293906117569553"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'testRun1 Without Duplicate'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Predictive Efficiency (minDistance)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:name>Predictive Efficiency (minDistance)</c:name>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'testRun1 Without Duplicate'!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1078</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8240</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7842</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9596</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9634</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6242</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>879</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7282</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5565</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7689</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1187</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7124</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9403</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1745</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3328</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9638</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1564</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9105</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2450</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3620</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7139</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2520</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4151</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9687</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4304</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9655</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8845</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2851</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4739</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'testRun1 Without Duplicate'!$D$2:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1162084</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67897600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61496964</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92083216</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>92813956</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38962564</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>772641</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53027524</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30969225</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>59120721</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2640625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1408969</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50751376</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>88416409</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3045025</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11075584</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>92891044</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2446096</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>82901025</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6002500</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13104400</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>50965321</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6350400</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>17230801</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>93837969</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>18524416</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>93219025</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>78234025</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8128201</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>22458121</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-60F3-1245-8E76-42DDB79F3BC6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'testRun1 Without Duplicate'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Predictive Efficiency (minDistance2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:name>Predictive Efficiency (minDistance2)</c:name>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'testRun1 Without Duplicate'!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1078</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8240</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7842</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9596</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9634</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6242</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>879</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7282</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5565</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7689</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1187</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7124</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9403</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1745</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3328</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9638</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1564</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9105</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2450</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3620</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7139</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2520</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4151</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9687</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4304</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9655</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8845</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2851</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4739</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'testRun1 Without Duplicate'!$E$2:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>580503</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33944680</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30744561</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46036810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46402161</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19478161</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>385881</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26510121</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15481830</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29556516</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1319500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>703891</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25372126</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44203503</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1521640</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5536128</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>46440703</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1222266</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41445960</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3000025</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6550390</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>25479091</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3173940</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8613325</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>46914141</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9260056</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>46604685</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>39112590</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4062675</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11226691</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-60F3-1245-8E76-42DDB79F3BC6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="520121135"/>
+        <c:axId val="513855839"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="520121135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU" sz="1800"/>
+                  <a:t>Array Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="513855839"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="513855839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU" sz="1800"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" sz="1800" baseline="0"/>
+                  <a:t> of Times Basic Operation is Performed</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU" sz="1800"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="7.4713882179994681E-3"/>
+              <c:y val="0.16644969506177085"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="520121135"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.6405357280105894E-2"/>
+          <c:y val="6.169236474641495E-2"/>
+          <c:w val="0.88004052363408403"/>
+          <c:h val="9.8090891931203711E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2044,10 +3074,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.16749836758210104"/>
-          <c:y val="8.0754368320782338E-2"/>
-          <c:w val="0.71980917995006721"/>
-          <c:h val="4.2572178477690285E-2"/>
+          <c:x val="9.6074705111893019E-2"/>
+          <c:y val="5.4345319846417578E-2"/>
+          <c:w val="0.87730948501619521"/>
+          <c:h val="9.2560475584204674E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2116,7 +3146,1013 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800"/>
+              <a:t>Array Size vs</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" baseline="0"/>
+              <a:t> Counters for minDistance and minDistance2 (Predictive Theoritical Efficiency)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1800"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.8243897961156387E-2"/>
+          <c:y val="0.17906878449920949"/>
+          <c:w val="0.87684231830117854"/>
+          <c:h val="0.69828227124249054"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'testRun2 Without Duplicate'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Predictive Efficiency (minDistance)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:name>Predictive Efficiency (minDiatance)</c:name>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'testRun2 Without Duplicate'!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>5698</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2486</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4332</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>516</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8939</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6932</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9736</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7913</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2175</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1273</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1372</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>682</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9080</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5191</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4752</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3225</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2307</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4512</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1096</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7685</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3940</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1374</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3469</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4104</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2892</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2477</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8933</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'testRun2 Without Duplicate'!$D$2:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>32467204</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64016001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10896601</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6180196</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18766224</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>266256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>79905721</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48052624</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25200400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>94789696</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>62615569</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4730625</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1620529</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1882384</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>465124</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>82446400</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26946481</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22581504</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10400625</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5322249</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20358144</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1201216</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>59059225</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15523600</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1887876</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12033961</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>16842816</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8363664</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6135529</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>79798489</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5CBE-8C44-B252-59407F829339}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'testRun2 Without Duplicate'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Predictive Efficiency (minDistance2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:name>Predictive Efficiency (minDistance2)</c:name>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'testRun2 Without Duplicate'!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>5698</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2486</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4332</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>516</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8939</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6932</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9736</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7913</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2175</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1273</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1372</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>682</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9080</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5191</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4752</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3225</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2307</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4512</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1096</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7685</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3940</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1374</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3469</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4104</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2892</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2477</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8933</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'testRun2 Without Duplicate'!$E$2:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>16230753</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32004000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5446650</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3088855</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9380946</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>132870</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39948391</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24022846</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12597690</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47389980</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31303828</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2364225</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>809628</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>940506</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>232221</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41218660</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13470645</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11288376</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5198700</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2659971</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10176816</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>600060</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29525770</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7759830</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>943251</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6015246</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8419356</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4180386</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3066526</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>39894778</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5CBE-8C44-B252-59407F829339}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="678499759"/>
+        <c:axId val="678500143"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="678499759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>Array Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="678500143"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="678500143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>Number of Times Basic Operation</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" baseline="0"/>
+                  <a:t> is Performed</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1800"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.4083767787123046E-2"/>
+              <c:y val="0.16669183686734809"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="678499759"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.7025612888139781E-2"/>
+          <c:y val="7.4880322971942068E-2"/>
+          <c:w val="0.88003092921135517"/>
+          <c:h val="0.10044527001265409"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2161,6 +4197,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.30001604661474535"/>
+          <c:y val="3.1021897810218978E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2192,7 +4236,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.7269204754977814E-2"/>
+          <c:y val="0.17020173793633417"/>
+          <c:w val="0.87806717379017685"/>
+          <c:h val="0.71812615016321002"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -2954,6 +5008,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.129631517015816E-2"/>
+              <c:y val="0.2633690397678447"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3038,10 +5100,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.16790808165328108"/>
-          <c:y val="8.4859775533880688E-2"/>
-          <c:w val="0.72946532441278633"/>
-          <c:h val="4.6334660314476701E-2"/>
+          <c:x val="9.6003780262950644E-2"/>
+          <c:y val="9.1193746767055578E-2"/>
+          <c:w val="0.87939264669235173"/>
+          <c:h val="7.9652278866601534E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3110,7 +5172,1029 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Array Size vs Counters for minDistance and minDistance2 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>(Predictive Theoritical Efficiency)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.7269204754977814E-2"/>
+          <c:y val="0.17020173793633417"/>
+          <c:w val="0.87806717379017685"/>
+          <c:h val="0.71812615016321002"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>testRun1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Predictive Efficiency (minDistance)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:name>Predictive Efficiency (minDistance)</c:name>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>testRun1!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7683</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>739</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7882</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9832</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1308</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7596</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1323</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5930</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6641</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4448</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4727</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3607</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2274</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2095</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9665</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3916</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7484</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8450</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6651</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5520</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9860</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4342</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3816</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3835</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3826</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>testRun1!$D$2:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>336400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4048144</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59028489</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>546121</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>62125924</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96668224</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1710864</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57699216</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1750329</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35164900</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44102881</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19784704</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22344529</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13010449</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>51840000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5171076</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4389025</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>93412225</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15335056</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>56010256</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>71402500</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44235801</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30470400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>97219600</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>18852964</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14561856</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14707225</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14638276</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>76877824</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6463-7C43-8C3E-5C5D3751DA6C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>testRun1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Predictive Efficiency (minDistance2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:name>Predictive Efficiency (minDistance2)</c:name>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.5592184151368E-3"/>
+                  <c:y val="-1.195715710208713E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>testRun1!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7683</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>739</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7882</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9832</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1308</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7596</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1323</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5930</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6641</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4448</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4727</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3607</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2274</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2095</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9665</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3916</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7484</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8450</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6651</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5520</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9860</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4342</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3816</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3835</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3826</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>testRun1!$E$2:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>167910</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2023066</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47895</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29510403</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>272691</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31059021</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48329196</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>854778</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28845810</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>874503</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17579485</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22048120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9890128</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11169901</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6503421</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25916400</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2584401</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2193465</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>46701280</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7665570</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>28001386</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>35697025</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22114575</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15232440</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>48604870</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9424311</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7279020</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7351695</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7317225</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>38434528</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6463-7C43-8C3E-5C5D3751DA6C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="634713023"/>
+        <c:axId val="634820223"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="634713023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>Array Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="634820223"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="634820223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Number of Times Basic Operation is Performed</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.3078349002086065E-2"/>
+              <c:y val="0.15853028956057913"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="634713023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10580480739157466"/>
+          <c:y val="8.149225298450595E-2"/>
+          <c:w val="0.8633895245948725"/>
+          <c:h val="7.826136652273305E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3186,7 +6270,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.0304232202188602E-2"/>
+          <c:y val="0.18295808887575848"/>
+          <c:w val="0.89806075541135388"/>
+          <c:h val="0.72791582651965048"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -3241,6 +6335,12 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.9029330291479231E-2"/>
+                  <c:y val="3.1495744618531128E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3948,6 +7048,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.4501119345576479E-3"/>
+              <c:y val="0.18101415429283765"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4032,10 +7140,1028 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12438704017583635"/>
-          <c:y val="7.272974156978558E-2"/>
-          <c:w val="0.78907022904493884"/>
-          <c:h val="4.6334660314476701E-2"/>
+          <c:x val="0.14902717196321683"/>
+          <c:y val="8.9678254146087447E-2"/>
+          <c:w val="0.77925785355967192"/>
+          <c:h val="7.6407144998658735E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Array Size vs Counters for minDistance and minDistance2 (Predictive Theoritical Efficiency)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.0304232202188602E-2"/>
+          <c:y val="0.18295808887575848"/>
+          <c:w val="0.89806075541135388"/>
+          <c:h val="0.72791582651965048"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>testRun2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Predictive Efficiency (minDistance)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:name>Predictive Efficiency (minDistance)</c:name>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.9029330291479231E-2"/>
+                  <c:y val="3.1495744618531128E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>testRun2!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>6680</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7292</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5655</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8045</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5862</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2499</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8046</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8334</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4945</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2586</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8269</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6446</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5975</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5450</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5849</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5972</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5847</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8989</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2113</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1686</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8063</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3975</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7171</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7808</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6990</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4757</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>testRun2!$D$2:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>44622400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81342361</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53173264</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9765625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31979025</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75099556</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64722025</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34363044</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6245001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64738116</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>69455556</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24453025</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>829921</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6687396</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>68376361</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41550916</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35700625</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29702500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>34210801</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>35664784</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>34187409</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>80802121</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4464769</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2842596</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>65011969</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15800625</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>51423241</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>60964864</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>48860100</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>22629049</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BA0E-064F-97A3-537E780DCBAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>testRun2!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Predictive Efficiency (minDistance2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:name>Predictive Efficiency (minDistance2)</c:name>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.1851728683778289E-3"/>
+                  <c:y val="-2.2169149343959371E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>testRun2!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>6680</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7292</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5655</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8045</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5862</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2499</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8046</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8334</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4945</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2586</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8269</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6446</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5975</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5450</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5849</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5972</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5847</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8989</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2113</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1686</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8063</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3975</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7171</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7808</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6990</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4757</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>testRun2!$E$2:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>22307860</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40666671</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26582986</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4881250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15986685</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37545445</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32356990</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17178591</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3121251</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32365035</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34723611</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12224040</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>414505</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3342405</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34184046</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20772235</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17847325</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14848525</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17102476</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17829406</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17090781</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>40396566</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2231328</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1420455</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>32501953</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7898325</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>25708035</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>30478528</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>24426555</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11312146</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BA0E-064F-97A3-537E780DCBAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2030091215"/>
+        <c:axId val="2030092895"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2030091215"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>Array Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2030092895"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2030092895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Number of Times Basic Operation is Performed</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="4.4507824095952496E-3"/>
+              <c:y val="0.17500208590941188"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2030091215"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.9203751216491217E-2"/>
+          <c:y val="9.2763694556166093E-2"/>
+          <c:w val="0.89803794188647756"/>
+          <c:h val="6.0732028550388034E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4264,6 +8390,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -6328,18 +10614,2082 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>69744</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>494570</xdr:colOff>
+      <xdr:colOff>634130</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>62102</xdr:rowOff>
     </xdr:to>
@@ -6368,6 +12718,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>83734</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>564387</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>181426</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46724A14-C68A-B74A-A621-C7BA90B6CE52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6376,15 +12764,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>198459</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>109559</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>221912</xdr:rowOff>
+      <xdr:rowOff>44112</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6411,6 +12799,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>147659</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>25062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAB3E922-3CE3-984B-96B6-4723D9A52770}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6418,16 +12844,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>215392</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>160528</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>355092</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6452,6 +12878,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>220134</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB80A1B6-BAD4-0E46-9E33-B7D94AA15D8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6460,15 +12924,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
+      <xdr:colOff>486833</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>583692</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>8128</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>12699</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6488,6 +12952,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE79CD66-7D1E-D741-ADFD-71BD0C4D31CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6793,10 +13295,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A11E0B3-0CCD-4F3C-9D7D-368DDE3E33BB}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="E2" zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6804,10 +13306,12 @@
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6817,8 +13321,14 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1078</v>
       </c>
@@ -6828,8 +13338,16 @@
       <c r="C2" s="3">
         <v>580503</v>
       </c>
+      <c r="D2" s="4">
+        <f>A2*A2</f>
+        <v>1162084</v>
+      </c>
+      <c r="E2" s="4">
+        <f>0.5*((A2^2)-A2)</f>
+        <v>580503</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>8240</v>
       </c>
@@ -6839,8 +13357,16 @@
       <c r="C3" s="3">
         <v>33944680</v>
       </c>
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:D31" si="0">A3*A3</f>
+        <v>67897600</v>
+      </c>
+      <c r="E3" s="4">
+        <f t="shared" ref="E3:E31" si="1">0.5*((A3^2)-A3)</f>
+        <v>33944680</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>7842</v>
       </c>
@@ -6850,8 +13376,16 @@
       <c r="C4" s="3">
         <v>30744561</v>
       </c>
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>61496964</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" si="1"/>
+        <v>30744561</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>9596</v>
       </c>
@@ -6861,8 +13395,16 @@
       <c r="C5" s="3">
         <v>46036810</v>
       </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>92083216</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="1"/>
+        <v>46036810</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>9634</v>
       </c>
@@ -6872,8 +13414,16 @@
       <c r="C6" s="3">
         <v>46402161</v>
       </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>92813956</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="1"/>
+        <v>46402161</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6242</v>
       </c>
@@ -6883,8 +13433,16 @@
       <c r="C7" s="3">
         <v>19478161</v>
       </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>38962564</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="1"/>
+        <v>19478161</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>879</v>
       </c>
@@ -6894,8 +13452,16 @@
       <c r="C8" s="3">
         <v>385881</v>
       </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>772641</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="1"/>
+        <v>385881</v>
+      </c>
     </row>
-    <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7282</v>
       </c>
@@ -6905,8 +13471,16 @@
       <c r="C9" s="3">
         <v>26510121</v>
       </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>53027524</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="1"/>
+        <v>26510121</v>
+      </c>
     </row>
-    <row r="10" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>5565</v>
       </c>
@@ -6916,8 +13490,16 @@
       <c r="C10" s="3">
         <v>15481830</v>
       </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>30969225</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="1"/>
+        <v>15481830</v>
+      </c>
     </row>
-    <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>7689</v>
       </c>
@@ -6927,8 +13509,16 @@
       <c r="C11" s="3">
         <v>29556516</v>
       </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>59120721</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="1"/>
+        <v>29556516</v>
+      </c>
     </row>
-    <row r="12" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>1625</v>
       </c>
@@ -6938,8 +13528,16 @@
       <c r="C12" s="3">
         <v>1319500</v>
       </c>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>2640625</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="1"/>
+        <v>1319500</v>
+      </c>
     </row>
-    <row r="13" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>1187</v>
       </c>
@@ -6949,8 +13547,16 @@
       <c r="C13" s="3">
         <v>703891</v>
       </c>
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>1408969</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="1"/>
+        <v>703891</v>
+      </c>
     </row>
-    <row r="14" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>7124</v>
       </c>
@@ -6960,8 +13566,16 @@
       <c r="C14" s="3">
         <v>25372126</v>
       </c>
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>50751376</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" si="1"/>
+        <v>25372126</v>
+      </c>
     </row>
-    <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>9403</v>
       </c>
@@ -6971,8 +13585,16 @@
       <c r="C15" s="3">
         <v>44203503</v>
       </c>
+      <c r="D15" s="4">
+        <f t="shared" si="0"/>
+        <v>88416409</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="1"/>
+        <v>44203503</v>
+      </c>
     </row>
-    <row r="16" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>1745</v>
       </c>
@@ -6982,8 +13604,16 @@
       <c r="C16" s="3">
         <v>1521640</v>
       </c>
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>3045025</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="1"/>
+        <v>1521640</v>
+      </c>
     </row>
-    <row r="17" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>3328</v>
       </c>
@@ -6993,8 +13623,16 @@
       <c r="C17" s="3">
         <v>5536128</v>
       </c>
+      <c r="D17" s="4">
+        <f t="shared" si="0"/>
+        <v>11075584</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" si="1"/>
+        <v>5536128</v>
+      </c>
     </row>
-    <row r="18" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>9638</v>
       </c>
@@ -7004,8 +13642,16 @@
       <c r="C18" s="3">
         <v>46440703</v>
       </c>
+      <c r="D18" s="4">
+        <f t="shared" si="0"/>
+        <v>92891044</v>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" si="1"/>
+        <v>46440703</v>
+      </c>
     </row>
-    <row r="19" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>1564</v>
       </c>
@@ -7015,8 +13661,16 @@
       <c r="C19" s="3">
         <v>1222266</v>
       </c>
+      <c r="D19" s="4">
+        <f t="shared" si="0"/>
+        <v>2446096</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="1"/>
+        <v>1222266</v>
+      </c>
     </row>
-    <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>9105</v>
       </c>
@@ -7026,8 +13680,16 @@
       <c r="C20" s="3">
         <v>41445960</v>
       </c>
+      <c r="D20" s="4">
+        <f t="shared" si="0"/>
+        <v>82901025</v>
+      </c>
+      <c r="E20" s="4">
+        <f t="shared" si="1"/>
+        <v>41445960</v>
+      </c>
     </row>
-    <row r="21" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>2450</v>
       </c>
@@ -7037,8 +13699,16 @@
       <c r="C21" s="3">
         <v>3000025</v>
       </c>
+      <c r="D21" s="4">
+        <f t="shared" si="0"/>
+        <v>6002500</v>
+      </c>
+      <c r="E21" s="4">
+        <f t="shared" si="1"/>
+        <v>3000025</v>
+      </c>
     </row>
-    <row r="22" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>3620</v>
       </c>
@@ -7048,8 +13718,16 @@
       <c r="C22" s="3">
         <v>6550390</v>
       </c>
+      <c r="D22" s="4">
+        <f t="shared" si="0"/>
+        <v>13104400</v>
+      </c>
+      <c r="E22" s="4">
+        <f t="shared" si="1"/>
+        <v>6550390</v>
+      </c>
     </row>
-    <row r="23" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>7139</v>
       </c>
@@ -7059,8 +13737,16 @@
       <c r="C23" s="3">
         <v>25479091</v>
       </c>
+      <c r="D23" s="4">
+        <f t="shared" si="0"/>
+        <v>50965321</v>
+      </c>
+      <c r="E23" s="4">
+        <f t="shared" si="1"/>
+        <v>25479091</v>
+      </c>
     </row>
-    <row r="24" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>2520</v>
       </c>
@@ -7070,8 +13756,16 @@
       <c r="C24" s="3">
         <v>3173940</v>
       </c>
+      <c r="D24" s="4">
+        <f t="shared" si="0"/>
+        <v>6350400</v>
+      </c>
+      <c r="E24" s="4">
+        <f t="shared" si="1"/>
+        <v>3173940</v>
+      </c>
     </row>
-    <row r="25" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>4151</v>
       </c>
@@ -7081,8 +13775,16 @@
       <c r="C25" s="3">
         <v>8613325</v>
       </c>
+      <c r="D25" s="4">
+        <f t="shared" si="0"/>
+        <v>17230801</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="1"/>
+        <v>8613325</v>
+      </c>
     </row>
-    <row r="26" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>9687</v>
       </c>
@@ -7092,8 +13794,16 @@
       <c r="C26" s="3">
         <v>46914141</v>
       </c>
+      <c r="D26" s="4">
+        <f t="shared" si="0"/>
+        <v>93837969</v>
+      </c>
+      <c r="E26" s="4">
+        <f t="shared" si="1"/>
+        <v>46914141</v>
+      </c>
     </row>
-    <row r="27" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>4304</v>
       </c>
@@ -7103,8 +13813,16 @@
       <c r="C27" s="3">
         <v>9260056</v>
       </c>
+      <c r="D27" s="4">
+        <f t="shared" si="0"/>
+        <v>18524416</v>
+      </c>
+      <c r="E27" s="4">
+        <f t="shared" si="1"/>
+        <v>9260056</v>
+      </c>
     </row>
-    <row r="28" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>9655</v>
       </c>
@@ -7114,8 +13832,16 @@
       <c r="C28" s="3">
         <v>46604685</v>
       </c>
+      <c r="D28" s="4">
+        <f t="shared" si="0"/>
+        <v>93219025</v>
+      </c>
+      <c r="E28" s="4">
+        <f t="shared" si="1"/>
+        <v>46604685</v>
+      </c>
     </row>
-    <row r="29" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>8845</v>
       </c>
@@ -7125,8 +13851,16 @@
       <c r="C29" s="3">
         <v>39112590</v>
       </c>
+      <c r="D29" s="4">
+        <f t="shared" si="0"/>
+        <v>78234025</v>
+      </c>
+      <c r="E29" s="4">
+        <f t="shared" si="1"/>
+        <v>39112590</v>
+      </c>
     </row>
-    <row r="30" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>2851</v>
       </c>
@@ -7136,8 +13870,16 @@
       <c r="C30" s="3">
         <v>4062675</v>
       </c>
+      <c r="D30" s="4">
+        <f t="shared" si="0"/>
+        <v>8128201</v>
+      </c>
+      <c r="E30" s="4">
+        <f t="shared" si="1"/>
+        <v>4062675</v>
+      </c>
     </row>
-    <row r="31" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>4739</v>
       </c>
@@ -7145,6 +13887,14 @@
         <v>22458121</v>
       </c>
       <c r="C31" s="3">
+        <v>11226691</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" si="0"/>
+        <v>22458121</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="1"/>
         <v>11226691</v>
       </c>
     </row>
@@ -7156,21 +13906,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F96B15E3-3B8B-2941-9C5F-8182C58E2A13}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="D3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="29.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="29.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -7180,8 +13932,14 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>5698</v>
       </c>
@@ -7191,8 +13949,16 @@
       <c r="C2" s="2">
         <v>16230753</v>
       </c>
+      <c r="D2" s="4">
+        <f>A2*A2</f>
+        <v>32467204</v>
+      </c>
+      <c r="E2" s="4">
+        <f>0.5*((A2*A2)-A2)</f>
+        <v>16230753</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>8001</v>
       </c>
@@ -7202,8 +13968,16 @@
       <c r="C3" s="2">
         <v>32004000</v>
       </c>
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:D31" si="0">A3*A3</f>
+        <v>64016001</v>
+      </c>
+      <c r="E3" s="4">
+        <f t="shared" ref="E3:E31" si="1">0.5*((A3*A3)-A3)</f>
+        <v>32004000</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3301</v>
       </c>
@@ -7213,8 +13987,16 @@
       <c r="C4" s="2">
         <v>5446650</v>
       </c>
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>10896601</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" si="1"/>
+        <v>5446650</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2486</v>
       </c>
@@ -7224,8 +14006,16 @@
       <c r="C5" s="2">
         <v>3088855</v>
       </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>6180196</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="1"/>
+        <v>3088855</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4332</v>
       </c>
@@ -7235,8 +14025,16 @@
       <c r="C6" s="2">
         <v>9380946</v>
       </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>18766224</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="1"/>
+        <v>9380946</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>516</v>
       </c>
@@ -7246,8 +14044,16 @@
       <c r="C7" s="2">
         <v>132870</v>
       </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>266256</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="1"/>
+        <v>132870</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>8939</v>
       </c>
@@ -7257,8 +14063,16 @@
       <c r="C8" s="2">
         <v>39948391</v>
       </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>79905721</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="1"/>
+        <v>39948391</v>
+      </c>
     </row>
-    <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6932</v>
       </c>
@@ -7268,8 +14082,16 @@
       <c r="C9" s="2">
         <v>24022846</v>
       </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>48052624</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="1"/>
+        <v>24022846</v>
+      </c>
     </row>
-    <row r="10" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>5020</v>
       </c>
@@ -7279,8 +14101,16 @@
       <c r="C10" s="2">
         <v>12597690</v>
       </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>25200400</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="1"/>
+        <v>12597690</v>
+      </c>
     </row>
-    <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9736</v>
       </c>
@@ -7290,8 +14120,16 @@
       <c r="C11" s="2">
         <v>47389980</v>
       </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>94789696</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="1"/>
+        <v>47389980</v>
+      </c>
     </row>
-    <row r="12" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>7913</v>
       </c>
@@ -7301,8 +14139,16 @@
       <c r="C12" s="2">
         <v>31303828</v>
       </c>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>62615569</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="1"/>
+        <v>31303828</v>
+      </c>
     </row>
-    <row r="13" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>2175</v>
       </c>
@@ -7312,8 +14158,16 @@
       <c r="C13" s="2">
         <v>2364225</v>
       </c>
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>4730625</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="1"/>
+        <v>2364225</v>
+      </c>
     </row>
-    <row r="14" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1273</v>
       </c>
@@ -7323,8 +14177,16 @@
       <c r="C14" s="2">
         <v>809628</v>
       </c>
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>1620529</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" si="1"/>
+        <v>809628</v>
+      </c>
     </row>
-    <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1372</v>
       </c>
@@ -7334,8 +14196,16 @@
       <c r="C15" s="2">
         <v>940506</v>
       </c>
+      <c r="D15" s="4">
+        <f t="shared" si="0"/>
+        <v>1882384</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="1"/>
+        <v>940506</v>
+      </c>
     </row>
-    <row r="16" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>682</v>
       </c>
@@ -7345,8 +14215,16 @@
       <c r="C16" s="2">
         <v>232221</v>
       </c>
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>465124</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="1"/>
+        <v>232221</v>
+      </c>
     </row>
-    <row r="17" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>9080</v>
       </c>
@@ -7356,8 +14234,16 @@
       <c r="C17" s="2">
         <v>41218660</v>
       </c>
+      <c r="D17" s="4">
+        <f t="shared" si="0"/>
+        <v>82446400</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" si="1"/>
+        <v>41218660</v>
+      </c>
     </row>
-    <row r="18" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>5191</v>
       </c>
@@ -7367,8 +14253,16 @@
       <c r="C18" s="2">
         <v>13470645</v>
       </c>
+      <c r="D18" s="4">
+        <f t="shared" si="0"/>
+        <v>26946481</v>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" si="1"/>
+        <v>13470645</v>
+      </c>
     </row>
-    <row r="19" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>4752</v>
       </c>
@@ -7378,8 +14272,16 @@
       <c r="C19" s="2">
         <v>11288376</v>
       </c>
+      <c r="D19" s="4">
+        <f t="shared" si="0"/>
+        <v>22581504</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="1"/>
+        <v>11288376</v>
+      </c>
     </row>
-    <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>3225</v>
       </c>
@@ -7389,8 +14291,16 @@
       <c r="C20" s="2">
         <v>5198700</v>
       </c>
+      <c r="D20" s="4">
+        <f t="shared" si="0"/>
+        <v>10400625</v>
+      </c>
+      <c r="E20" s="4">
+        <f t="shared" si="1"/>
+        <v>5198700</v>
+      </c>
     </row>
-    <row r="21" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>2307</v>
       </c>
@@ -7400,8 +14310,16 @@
       <c r="C21" s="2">
         <v>2659971</v>
       </c>
+      <c r="D21" s="4">
+        <f t="shared" si="0"/>
+        <v>5322249</v>
+      </c>
+      <c r="E21" s="4">
+        <f t="shared" si="1"/>
+        <v>2659971</v>
+      </c>
     </row>
-    <row r="22" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>4512</v>
       </c>
@@ -7411,8 +14329,16 @@
       <c r="C22" s="2">
         <v>10176816</v>
       </c>
+      <c r="D22" s="4">
+        <f t="shared" si="0"/>
+        <v>20358144</v>
+      </c>
+      <c r="E22" s="4">
+        <f t="shared" si="1"/>
+        <v>10176816</v>
+      </c>
     </row>
-    <row r="23" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>1096</v>
       </c>
@@ -7422,8 +14348,16 @@
       <c r="C23" s="2">
         <v>600060</v>
       </c>
+      <c r="D23" s="4">
+        <f t="shared" si="0"/>
+        <v>1201216</v>
+      </c>
+      <c r="E23" s="4">
+        <f t="shared" si="1"/>
+        <v>600060</v>
+      </c>
     </row>
-    <row r="24" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>7685</v>
       </c>
@@ -7433,8 +14367,16 @@
       <c r="C24" s="2">
         <v>29525770</v>
       </c>
+      <c r="D24" s="4">
+        <f t="shared" si="0"/>
+        <v>59059225</v>
+      </c>
+      <c r="E24" s="4">
+        <f t="shared" si="1"/>
+        <v>29525770</v>
+      </c>
     </row>
-    <row r="25" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>3940</v>
       </c>
@@ -7444,8 +14386,16 @@
       <c r="C25" s="2">
         <v>7759830</v>
       </c>
+      <c r="D25" s="4">
+        <f t="shared" si="0"/>
+        <v>15523600</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="1"/>
+        <v>7759830</v>
+      </c>
     </row>
-    <row r="26" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>1374</v>
       </c>
@@ -7455,8 +14405,16 @@
       <c r="C26" s="2">
         <v>943251</v>
       </c>
+      <c r="D26" s="4">
+        <f t="shared" si="0"/>
+        <v>1887876</v>
+      </c>
+      <c r="E26" s="4">
+        <f t="shared" si="1"/>
+        <v>943251</v>
+      </c>
     </row>
-    <row r="27" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>3469</v>
       </c>
@@ -7466,8 +14424,16 @@
       <c r="C27" s="2">
         <v>6015246</v>
       </c>
+      <c r="D27" s="4">
+        <f t="shared" si="0"/>
+        <v>12033961</v>
+      </c>
+      <c r="E27" s="4">
+        <f t="shared" si="1"/>
+        <v>6015246</v>
+      </c>
     </row>
-    <row r="28" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>4104</v>
       </c>
@@ -7477,8 +14443,16 @@
       <c r="C28" s="2">
         <v>8419356</v>
       </c>
+      <c r="D28" s="4">
+        <f t="shared" si="0"/>
+        <v>16842816</v>
+      </c>
+      <c r="E28" s="4">
+        <f t="shared" si="1"/>
+        <v>8419356</v>
+      </c>
     </row>
-    <row r="29" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>2892</v>
       </c>
@@ -7488,8 +14462,16 @@
       <c r="C29" s="2">
         <v>4180386</v>
       </c>
+      <c r="D29" s="4">
+        <f t="shared" si="0"/>
+        <v>8363664</v>
+      </c>
+      <c r="E29" s="4">
+        <f t="shared" si="1"/>
+        <v>4180386</v>
+      </c>
     </row>
-    <row r="30" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>2477</v>
       </c>
@@ -7499,8 +14481,16 @@
       <c r="C30" s="2">
         <v>3066526</v>
       </c>
+      <c r="D30" s="4">
+        <f t="shared" si="0"/>
+        <v>6135529</v>
+      </c>
+      <c r="E30" s="4">
+        <f t="shared" si="1"/>
+        <v>3066526</v>
+      </c>
     </row>
-    <row r="31" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>8933</v>
       </c>
@@ -7508,6 +14498,14 @@
         <v>79798489</v>
       </c>
       <c r="C31" s="2">
+        <v>39894778</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" si="0"/>
+        <v>79798489</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="1"/>
         <v>39894778</v>
       </c>
     </row>
@@ -7519,356 +14517,604 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E2E93D-C293-0D44-A7D2-46CC9FC54F82}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="D6" workbookViewId="0">
-      <selection activeCell="C37" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="F46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z7" sqref="Z7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>580</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>336400</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>167910</v>
       </c>
+      <c r="D2" s="3">
+        <f>A2*A2</f>
+        <v>336400</v>
+      </c>
+      <c r="E2" s="3">
+        <f>0.5*((A2*A2) - A2)</f>
+        <v>167910</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>2012</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>4048144</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>2023066</v>
       </c>
+      <c r="D3" s="3">
+        <f t="shared" ref="D3:D31" si="0">A3*A3</f>
+        <v>4048144</v>
+      </c>
+      <c r="E3" s="3">
+        <f t="shared" ref="E3:E31" si="1">0.5*((A3*A3) - A3)</f>
+        <v>2023066</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>310</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>96100</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>47895</v>
       </c>
+      <c r="D4" s="3">
+        <f t="shared" si="0"/>
+        <v>96100</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" si="1"/>
+        <v>47895</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>7683</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>59028489</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>29510403</v>
       </c>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>59028489</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="1"/>
+        <v>29510403</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>739</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>546121</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>272691</v>
       </c>
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>546121</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="1"/>
+        <v>272691</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>7882</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>62125924</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>31059021</v>
       </c>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>62125924</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="1"/>
+        <v>31059021</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>9832</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>96668224</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>48329196</v>
       </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>96668224</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="1"/>
+        <v>48329196</v>
+      </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>1308</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>1710864</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>854778</v>
       </c>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>1710864</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="1"/>
+        <v>854778</v>
+      </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>7596</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>57699216</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>28845810</v>
       </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>57699216</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="1"/>
+        <v>28845810</v>
+      </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>1323</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>1750329</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>874503</v>
       </c>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>1750329</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="1"/>
+        <v>874503</v>
+      </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>5930</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <v>35164900</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>17579485</v>
       </c>
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>35164900</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="1"/>
+        <v>17579485</v>
+      </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>6641</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>44102881</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>22048120</v>
       </c>
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>44102881</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="1"/>
+        <v>22048120</v>
+      </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>4448</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>19784704</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>9890128</v>
       </c>
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>19784704</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="1"/>
+        <v>9890128</v>
+      </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>4727</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <v>22344529</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <v>11169901</v>
       </c>
+      <c r="D15" s="3">
+        <f t="shared" si="0"/>
+        <v>22344529</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="1"/>
+        <v>11169901</v>
+      </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16">
+    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>3607</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
         <v>13010449</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <v>6503421</v>
       </c>
+      <c r="D16" s="3">
+        <f t="shared" si="0"/>
+        <v>13010449</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="1"/>
+        <v>6503421</v>
+      </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
+    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>7200</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
         <v>51840000</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
         <v>25916400</v>
       </c>
+      <c r="D17" s="3">
+        <f t="shared" si="0"/>
+        <v>51840000</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="1"/>
+        <v>25916400</v>
+      </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18">
+    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>2274</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="3">
         <v>5171076</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
         <v>2584401</v>
       </c>
+      <c r="D18" s="3">
+        <f t="shared" si="0"/>
+        <v>5171076</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="1"/>
+        <v>2584401</v>
+      </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19">
+    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>2095</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="3">
         <v>4389025</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="3">
         <v>2193465</v>
       </c>
+      <c r="D19" s="3">
+        <f t="shared" si="0"/>
+        <v>4389025</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="1"/>
+        <v>2193465</v>
+      </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20">
+    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>9665</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="3">
         <v>93412225</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="3">
         <v>46701280</v>
       </c>
+      <c r="D20" s="3">
+        <f t="shared" si="0"/>
+        <v>93412225</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" si="1"/>
+        <v>46701280</v>
+      </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21">
+    <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>3916</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="3">
         <v>15335056</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="3">
         <v>7665570</v>
       </c>
+      <c r="D21" s="3">
+        <f t="shared" si="0"/>
+        <v>15335056</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" si="1"/>
+        <v>7665570</v>
+      </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22">
+    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>7484</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="3">
         <v>56010256</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="3">
         <v>28001386</v>
       </c>
+      <c r="D22" s="3">
+        <f t="shared" si="0"/>
+        <v>56010256</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" si="1"/>
+        <v>28001386</v>
+      </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23">
+    <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>8450</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="3">
         <v>71402500</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="3">
         <v>35697025</v>
       </c>
+      <c r="D23" s="3">
+        <f t="shared" si="0"/>
+        <v>71402500</v>
+      </c>
+      <c r="E23" s="3">
+        <f t="shared" si="1"/>
+        <v>35697025</v>
+      </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24">
+    <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>6651</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="3">
         <v>44235801</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="3">
         <v>22114575</v>
       </c>
+      <c r="D24" s="3">
+        <f t="shared" si="0"/>
+        <v>44235801</v>
+      </c>
+      <c r="E24" s="3">
+        <f t="shared" si="1"/>
+        <v>22114575</v>
+      </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25">
+    <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <v>5520</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="3">
         <v>30470400</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="3">
         <v>15232440</v>
       </c>
+      <c r="D25" s="3">
+        <f t="shared" si="0"/>
+        <v>30470400</v>
+      </c>
+      <c r="E25" s="3">
+        <f t="shared" si="1"/>
+        <v>15232440</v>
+      </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26">
+    <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <v>9860</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="3">
         <v>97219600</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="3">
         <v>48604870</v>
       </c>
+      <c r="D26" s="3">
+        <f t="shared" si="0"/>
+        <v>97219600</v>
+      </c>
+      <c r="E26" s="3">
+        <f t="shared" si="1"/>
+        <v>48604870</v>
+      </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27">
+    <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
         <v>4342</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="3">
         <v>18852964</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="3">
         <v>9424311</v>
       </c>
+      <c r="D27" s="3">
+        <f t="shared" si="0"/>
+        <v>18852964</v>
+      </c>
+      <c r="E27" s="3">
+        <f t="shared" si="1"/>
+        <v>9424311</v>
+      </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28">
+    <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
         <v>3816</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="3">
         <v>14561856</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="3">
         <v>7279020</v>
       </c>
+      <c r="D28" s="3">
+        <f t="shared" si="0"/>
+        <v>14561856</v>
+      </c>
+      <c r="E28" s="3">
+        <f t="shared" si="1"/>
+        <v>7279020</v>
+      </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29">
+    <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <v>3835</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="3">
         <v>14707225</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="3">
         <v>7351695</v>
       </c>
+      <c r="D29" s="3">
+        <f t="shared" si="0"/>
+        <v>14707225</v>
+      </c>
+      <c r="E29" s="3">
+        <f t="shared" si="1"/>
+        <v>7351695</v>
+      </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30">
+    <row r="30" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
         <v>3826</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="3">
         <v>14638276</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="3">
         <v>7317225</v>
       </c>
+      <c r="D30" s="3">
+        <f t="shared" si="0"/>
+        <v>14638276</v>
+      </c>
+      <c r="E30" s="3">
+        <f t="shared" si="1"/>
+        <v>7317225</v>
+      </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31">
+    <row r="31" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
         <v>8768</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="3">
         <v>76877824</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="3">
+        <v>38434528</v>
+      </c>
+      <c r="D31" s="3">
+        <f t="shared" si="0"/>
+        <v>76877824</v>
+      </c>
+      <c r="E31" s="3">
+        <f t="shared" si="1"/>
         <v>38434528</v>
       </c>
     </row>
@@ -7880,357 +15126,605 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3575E68-0E68-D54A-A2BD-D01A64D54C74}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="E4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>6680</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>44622400</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>22307860</v>
       </c>
+      <c r="D2" s="3">
+        <f>A2*A2</f>
+        <v>44622400</v>
+      </c>
+      <c r="E2" s="3">
+        <f>0.5*((A2*A2)-A2)</f>
+        <v>22307860</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>9019</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>81342361</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>40666671</v>
       </c>
+      <c r="D3" s="3">
+        <f t="shared" ref="D3:D31" si="0">A3*A3</f>
+        <v>81342361</v>
+      </c>
+      <c r="E3" s="3">
+        <f t="shared" ref="E3:E31" si="1">0.5*((A3*A3)-A3)</f>
+        <v>40666671</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>7292</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>53173264</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>26582986</v>
       </c>
+      <c r="D4" s="3">
+        <f t="shared" si="0"/>
+        <v>53173264</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" si="1"/>
+        <v>26582986</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>3125</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>9765625</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>4881250</v>
       </c>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>9765625</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="1"/>
+        <v>4881250</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>5655</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>31979025</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>15986685</v>
       </c>
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>31979025</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="1"/>
+        <v>15986685</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>8666</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>75099556</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>37545445</v>
       </c>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>75099556</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="1"/>
+        <v>37545445</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>8045</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>64722025</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>32356990</v>
       </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>64722025</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="1"/>
+        <v>32356990</v>
+      </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>5862</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>34363044</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>17178591</v>
       </c>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>34363044</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="1"/>
+        <v>17178591</v>
+      </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>2499</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>6245001</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>3121251</v>
       </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>6245001</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="1"/>
+        <v>3121251</v>
+      </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>8046</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>64738116</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>32365035</v>
       </c>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>64738116</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="1"/>
+        <v>32365035</v>
+      </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>8334</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <v>69455556</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>34723611</v>
       </c>
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>69455556</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="1"/>
+        <v>34723611</v>
+      </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>4945</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>24453025</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>12224040</v>
       </c>
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>24453025</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="1"/>
+        <v>12224040</v>
+      </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>911</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>829921</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>414505</v>
       </c>
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>829921</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="1"/>
+        <v>414505</v>
+      </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>2586</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <v>6687396</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <v>3342405</v>
       </c>
+      <c r="D15" s="3">
+        <f t="shared" si="0"/>
+        <v>6687396</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="1"/>
+        <v>3342405</v>
+      </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16">
+    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>8269</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
         <v>68376361</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <v>34184046</v>
       </c>
+      <c r="D16" s="3">
+        <f t="shared" si="0"/>
+        <v>68376361</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="1"/>
+        <v>34184046</v>
+      </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
+    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>6446</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
         <v>41550916</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
         <v>20772235</v>
       </c>
+      <c r="D17" s="3">
+        <f t="shared" si="0"/>
+        <v>41550916</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="1"/>
+        <v>20772235</v>
+      </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18">
+    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>5975</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="3">
         <v>35700625</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
         <v>17847325</v>
       </c>
+      <c r="D18" s="3">
+        <f t="shared" si="0"/>
+        <v>35700625</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="1"/>
+        <v>17847325</v>
+      </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19">
+    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>5450</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="3">
         <v>29702500</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="3">
         <v>14848525</v>
       </c>
+      <c r="D19" s="3">
+        <f t="shared" si="0"/>
+        <v>29702500</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="1"/>
+        <v>14848525</v>
+      </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20">
+    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>5849</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="3">
         <v>34210801</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="3">
         <v>17102476</v>
       </c>
+      <c r="D20" s="3">
+        <f t="shared" si="0"/>
+        <v>34210801</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" si="1"/>
+        <v>17102476</v>
+      </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21">
+    <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>5972</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="3">
         <v>35664784</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="3">
         <v>17829406</v>
       </c>
+      <c r="D21" s="3">
+        <f t="shared" si="0"/>
+        <v>35664784</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" si="1"/>
+        <v>17829406</v>
+      </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22">
+    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>5847</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="3">
         <v>34187409</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="3">
         <v>17090781</v>
       </c>
+      <c r="D22" s="3">
+        <f t="shared" si="0"/>
+        <v>34187409</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" si="1"/>
+        <v>17090781</v>
+      </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23">
+    <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>8989</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="3">
         <v>80802121</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="3">
         <v>40396566</v>
       </c>
+      <c r="D23" s="3">
+        <f t="shared" si="0"/>
+        <v>80802121</v>
+      </c>
+      <c r="E23" s="3">
+        <f t="shared" si="1"/>
+        <v>40396566</v>
+      </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24">
+    <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>2113</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="3">
         <v>4464769</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="3">
         <v>2231328</v>
       </c>
+      <c r="D24" s="3">
+        <f t="shared" si="0"/>
+        <v>4464769</v>
+      </c>
+      <c r="E24" s="3">
+        <f t="shared" si="1"/>
+        <v>2231328</v>
+      </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25">
+    <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <v>1686</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="3">
         <v>2842596</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="3">
         <v>1420455</v>
       </c>
+      <c r="D25" s="3">
+        <f t="shared" si="0"/>
+        <v>2842596</v>
+      </c>
+      <c r="E25" s="3">
+        <f t="shared" si="1"/>
+        <v>1420455</v>
+      </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26">
+    <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <v>8063</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="3">
         <v>65011969</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="3">
         <v>32501953</v>
       </c>
+      <c r="D26" s="3">
+        <f t="shared" si="0"/>
+        <v>65011969</v>
+      </c>
+      <c r="E26" s="3">
+        <f t="shared" si="1"/>
+        <v>32501953</v>
+      </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27">
+    <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
         <v>3975</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="3">
         <v>15800625</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="3">
         <v>7898325</v>
       </c>
+      <c r="D27" s="3">
+        <f t="shared" si="0"/>
+        <v>15800625</v>
+      </c>
+      <c r="E27" s="3">
+        <f t="shared" si="1"/>
+        <v>7898325</v>
+      </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28">
+    <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
         <v>7171</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="3">
         <v>51423241</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="3">
         <v>25708035</v>
       </c>
+      <c r="D28" s="3">
+        <f t="shared" si="0"/>
+        <v>51423241</v>
+      </c>
+      <c r="E28" s="3">
+        <f t="shared" si="1"/>
+        <v>25708035</v>
+      </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29">
+    <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <v>7808</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="3">
         <v>60964864</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="3">
         <v>30478528</v>
       </c>
+      <c r="D29" s="3">
+        <f t="shared" si="0"/>
+        <v>60964864</v>
+      </c>
+      <c r="E29" s="3">
+        <f t="shared" si="1"/>
+        <v>30478528</v>
+      </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30">
+    <row r="30" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
         <v>6990</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="3">
         <v>48860100</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="3">
         <v>24426555</v>
       </c>
+      <c r="D30" s="3">
+        <f t="shared" si="0"/>
+        <v>48860100</v>
+      </c>
+      <c r="E30" s="3">
+        <f t="shared" si="1"/>
+        <v>24426555</v>
+      </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31">
+    <row r="31" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
         <v>4757</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="3">
         <v>22629049</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="3">
+        <v>11312146</v>
+      </c>
+      <c r="D31" s="3">
+        <f t="shared" si="0"/>
+        <v>22629049</v>
+      </c>
+      <c r="E31" s="3">
+        <f t="shared" si="1"/>
         <v>11312146</v>
       </c>
     </row>
